--- a/GATEWAY/A1#111GESANTHCSSRLXX/GESANTHCS_SRL/ENERGY-RSA/V.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESANTHCSSRLXX/GESANTHCS_SRL/ENERGY-RSA/V.2.0/report-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xDevelop\Integrazioni\FSE2.0\Accreditamento\RSA\xValidazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7397E4C2-AE8C-4029-A3BB-25D8582CFA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D2E901-3AB7-465B-B23A-59877A0963B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,37 +417,13 @@
     <t>UNKNOWN_WORKFLOW_ID</t>
   </si>
   <si>
-    <t>JWT payload: Person id presente nel JWT differente dal codice fiscale del paziente previsto sul CDA</t>
-  </si>
-  <si>
     <t>L’applicativo risponde con un codice di errore e il messaggio “Campo token JWT non valido” seguito dal motivo dell’errore. Il referto non viene prodotto e viene aggiunto in una coda di errori di validazione dalla quale è possibile dedurre il tipo di errore e apportare le dovute correzioni, al termine delle quali il documento viene nuovamente inviato per la validazione.</t>
-  </si>
-  <si>
-    <t>f22500b702a2c1d0</t>
   </si>
   <si>
     <t>a39f0275684e788c</t>
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.6598c65ae5399303a9369ad5fcab265ce9941f9abb9213a2f5ee3cafa81df0e8.80ec362db9^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>0af2811ac84b5ee1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ec7b7a855915fadb7e3e783a228162dc1b83b318fb8ec8a18fb44f2b20cb9973.d3e93c3898^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>a9e7721903dd8e08</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.02c3bdc11dfc5445b5729316d3bfbd485801bf2197315029c82492a6999e0f9f.c09e02ca19^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>e8cf4624d99eb1bd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.9223fe24ea0502fbc621cc126935582805911d89870a26986b41c5933f68fc96.f8e7e67a40^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>CASO NON APPLICABILE. IL CAMPO DA TESTARE E’ DI DEFAULT IMPOSTATO A “N”  NELL’APPLICATIVO CHE GENERA IL CDA2</t>
@@ -672,6 +648,32 @@
 Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
     </r>
   </si>
+  <si>
+    <t>0d3dfb019a4ffc72</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.ec7b7a855915fadb7e3e783a228162dc1b83b318fb8ec8a18fb44f2b20cb9973.95c96e35ae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>aede51b36eb38d5f</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.02c3bdc11dfc5445b5729316d3bfbd485801bf2197315029c82492a6999e0f9f.2c9f985bed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>b2ad924b86769ea1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.9223fe24ea0502fbc621cc126935582805911d89870a26986b41c5933f68fc96.334a301fca^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>ERRORE:    "title": "Campo token JWT non valido.",
+    "detail": "Il codice fiscale nel campo person_id non è corretto",
+    "status": 403,</t>
+  </si>
+  <si>
+    <t>ce111cc2fca559ec</t>
+  </si>
 </sst>
 </file>
 
@@ -680,7 +682,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -723,6 +725,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0451A5"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0451A5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -916,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,26 +992,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1033,12 +1032,50 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0451A5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1349,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T707"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1362,8 +1399,8 @@
     <col min="5" max="5" width="104.7109375" style="27" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" style="27" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="27" customWidth="1"/>
-    <col min="8" max="8" width="20" style="41" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="41" customWidth="1"/>
+    <col min="8" max="8" width="20" style="36" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="36" customWidth="1"/>
     <col min="10" max="10" width="21.85546875" style="27" customWidth="1"/>
     <col min="11" max="11" width="37.7109375" style="27" customWidth="1"/>
     <col min="12" max="12" width="29.5703125" style="27" customWidth="1"/>
@@ -1401,14 +1438,14 @@
       <c r="T1" s="23"/>
     </row>
     <row r="2" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="29"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -1427,14 +1464,14 @@
       <c r="T2" s="23"/>
     </row>
     <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="50"/>
+      <c r="C3" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -1453,13 +1490,13 @@
       <c r="T3" s="23"/>
     </row>
     <row r="4" spans="1:20" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="22"/>
@@ -1477,12 +1514,12 @@
       <c r="T4" s="23"/>
     </row>
     <row r="5" spans="1:20" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -1501,9 +1538,9 @@
       <c r="T5" s="23"/>
     </row>
     <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="21"/>
@@ -1523,9 +1560,9 @@
       <c r="T6" s="23"/>
     </row>
     <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
       <c r="F7" s="21"/>
@@ -1567,1240 +1604,1240 @@
       <c r="T8" s="23"/>
     </row>
     <row r="9" spans="1:20" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="35" t="s">
+      <c r="J9" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="L9" s="35" t="s">
+      <c r="L9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="35" t="s">
+      <c r="M9" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="35" t="s">
+      <c r="N9" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="O9" s="35" t="s">
+      <c r="O9" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="P9" s="35" t="s">
+      <c r="P9" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="35" t="s">
+      <c r="Q9" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="R9" s="35" t="s">
+      <c r="R9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="S9" s="35" t="s">
+      <c r="S9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="T9" s="35" t="s">
+      <c r="T9" s="28" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="150" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="31">
         <v>32</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="240" x14ac:dyDescent="0.25">
+      <c r="A11" s="31">
+        <v>40</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="45">
+        <v>45219</v>
+      </c>
+      <c r="G11" s="44">
+        <v>45219.425000000003</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="39" t="s">
+      <c r="O11" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="P11" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>48</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="37">
+        <v>45215</v>
+      </c>
+      <c r="G12" s="38">
+        <v>45215.4375</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="36"/>
+      <c r="T12" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
+        <v>147</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="37">
+        <v>45215</v>
+      </c>
+      <c r="G13" s="38">
+        <v>45215.432638888888</v>
+      </c>
+      <c r="H13" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+      <c r="A14" s="31">
+        <v>148</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="45">
+        <v>45219</v>
+      </c>
+      <c r="G14" s="44">
+        <v>45219.385416666664</v>
+      </c>
+      <c r="H14" s="43" t="s">
+        <v>154</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="J14" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+      <c r="A15" s="31">
+        <v>149</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="45">
+        <v>45219</v>
+      </c>
+      <c r="G15" s="44">
+        <v>45219.400694444441</v>
+      </c>
+      <c r="H15" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>150</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="45">
+        <v>45219</v>
+      </c>
+      <c r="G16" s="44">
+        <v>45219.40902777778</v>
+      </c>
+      <c r="H16" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="31">
+        <v>151</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="K10" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="39" t="s">
+      <c r="K17" s="41" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="240" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
-        <v>40</v>
-      </c>
-      <c r="B11" s="36" t="s">
+    <row r="18" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="31">
+        <v>152</v>
+      </c>
+      <c r="B18" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C18" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="37" t="s">
+      <c r="D18" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="330" x14ac:dyDescent="0.25">
+      <c r="A19" s="31">
+        <v>153</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="37">
+        <v>45215</v>
+      </c>
+      <c r="G19" s="38">
+        <v>45215.718055555553</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="N19" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="O19" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="225" x14ac:dyDescent="0.25">
+      <c r="A20" s="31">
+        <v>154</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="37">
+        <v>45216</v>
+      </c>
+      <c r="G20" s="38">
+        <v>45216.679166666669</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="O20" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A21" s="31">
+        <v>155</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A22" s="31">
+        <v>156</v>
+      </c>
+      <c r="B22" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A23" s="31">
+        <v>157</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>158</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>159</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>160</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K26" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
         <v>161</v>
       </c>
-      <c r="F11" s="42">
-        <v>45215</v>
-      </c>
-      <c r="G11" s="43">
-        <v>45215.431250000001</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="I11" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="J11" s="39" t="s">
+      <c r="B27" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="K27" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>162</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="37">
+        <v>45216</v>
+      </c>
+      <c r="G28" s="38">
+        <v>45216.737500000003</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39" t="s">
+      <c r="K28" s="34"/>
+      <c r="L28" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="39" t="s">
+      <c r="M28" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="O28" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="N11" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="O11" s="39" t="s">
+      <c r="P28" s="41" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>163</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29" s="37">
+        <v>45217</v>
+      </c>
+      <c r="G29" s="38">
+        <v>45217.377083333333</v>
+      </c>
+      <c r="H29" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="J29" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="P11" s="39" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="39" t="s">
+      <c r="K29" s="34"/>
+      <c r="L29" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="O29" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P29" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
-        <v>48</v>
-      </c>
-      <c r="B12" s="36" t="s">
+    <row r="30" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A30" s="31">
+        <v>164</v>
+      </c>
+      <c r="B30" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C30" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="42">
-        <v>45215</v>
-      </c>
-      <c r="G12" s="43">
-        <v>45215.4375</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40" t="s">
+      <c r="D30" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="37">
+        <v>45217</v>
+      </c>
+      <c r="G30" s="38">
+        <v>45217.393055555556</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="I30" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J30" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="S12" s="41"/>
-      <c r="T12" s="39" t="s">
+      <c r="K30" s="34"/>
+      <c r="L30" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M30" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="O30" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P30" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+    <row r="31" spans="1:20" ht="255" x14ac:dyDescent="0.25">
+      <c r="A31" s="31">
+        <v>165</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="F31" s="37">
+        <v>45218</v>
+      </c>
+      <c r="G31" s="38">
+        <v>45218.370138888888</v>
+      </c>
+      <c r="H31" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="J31" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M31" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O31" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P31" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q31" s="34"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A32" s="31">
+        <v>166</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D32" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32" s="37">
+        <v>45218</v>
+      </c>
+      <c r="G32" s="38">
+        <v>45218.375694444447</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M32" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="O32" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q32" s="34"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="156" x14ac:dyDescent="0.25">
+      <c r="A33" s="31">
+        <v>167</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="37">
+        <v>45218</v>
+      </c>
+      <c r="G33" s="38">
+        <v>45218.384027777778</v>
+      </c>
+      <c r="H33" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="I33" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="J33" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M33" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="O33" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" ht="270" x14ac:dyDescent="0.25">
+      <c r="A34" s="31">
+        <v>168</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="37">
+        <v>45218</v>
+      </c>
+      <c r="G34" s="38">
+        <v>45218.393750000003</v>
+      </c>
+      <c r="H34" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="I34" s="39" t="s">
+        <v>148</v>
+      </c>
+      <c r="J34" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="M34" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="39" t="s">
+        <v>149</v>
+      </c>
+      <c r="O34" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="P34" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <v>169</v>
+      </c>
+      <c r="B35" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="C35" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="42">
-        <v>45215</v>
-      </c>
-      <c r="G13" s="43">
-        <v>45215.432638888888</v>
-      </c>
-      <c r="H13" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="J13" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="165" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
-        <v>148</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="42">
-        <v>45215</v>
-      </c>
-      <c r="G14" s="43">
-        <v>45215.479166666664</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="I14" s="44" t="s">
-        <v>112</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="165" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
-        <v>149</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="F15" s="42">
-        <v>45215</v>
-      </c>
-      <c r="G15" s="43">
-        <v>45215.48541666667</v>
-      </c>
-      <c r="H15" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="I15" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="J15" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="165" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
-        <v>150</v>
-      </c>
-      <c r="B16" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="42">
-        <v>45215</v>
-      </c>
-      <c r="G16" s="43">
-        <v>45215.491666666669</v>
-      </c>
-      <c r="H16" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
-      <c r="N16" s="39"/>
-      <c r="O16" s="39"/>
-      <c r="P16" s="39"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="39" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="36">
+      <c r="D35" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="K35" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="L17" s="39"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" s="36">
-        <v>152</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="L18" s="39"/>
-      <c r="M18" s="39"/>
-      <c r="N18" s="39"/>
-      <c r="O18" s="39"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="39"/>
-      <c r="R18" s="40"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="330" x14ac:dyDescent="0.25">
-      <c r="A19" s="36">
-        <v>153</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="42">
-        <v>45215</v>
-      </c>
-      <c r="G19" s="43">
-        <v>45215.718055555553</v>
-      </c>
-      <c r="H19" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="I19" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="N19" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="225" x14ac:dyDescent="0.25">
-      <c r="A20" s="36">
-        <v>154</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="F20" s="42">
-        <v>45216</v>
-      </c>
-      <c r="G20" s="43">
-        <v>45216.679166666669</v>
-      </c>
-      <c r="H20" s="45" t="s">
-        <v>123</v>
-      </c>
-      <c r="I20" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="M20" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N20" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="O20" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A21" s="36">
-        <v>155</v>
-      </c>
-      <c r="B21" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="K21" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="39"/>
-      <c r="O21" s="39"/>
-      <c r="P21" s="39"/>
-      <c r="Q21" s="39"/>
-      <c r="R21" s="40"/>
-      <c r="S21" s="41"/>
-      <c r="T21" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A22" s="36">
-        <v>156</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E22" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="K22" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="L22" s="39"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="40"/>
-      <c r="S22" s="41"/>
-      <c r="T22" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
-        <v>157</v>
-      </c>
-      <c r="B23" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="K23" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="L23" s="39"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="39"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="39"/>
-      <c r="Q23" s="39"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="41"/>
-      <c r="T23" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A24" s="36">
-        <v>158</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="K24" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="41"/>
-      <c r="T24" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A25" s="36">
-        <v>159</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="K25" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="L25" s="39"/>
-      <c r="M25" s="39"/>
-      <c r="N25" s="39"/>
-      <c r="O25" s="39"/>
-      <c r="P25" s="39"/>
-      <c r="Q25" s="39"/>
-      <c r="R25" s="40"/>
-      <c r="S25" s="41"/>
-      <c r="T25" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" s="36">
-        <v>160</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="K26" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="L26" s="39"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="39"/>
-      <c r="O26" s="39"/>
-      <c r="P26" s="39"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="40"/>
-      <c r="S26" s="41"/>
-      <c r="T26" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A27" s="36">
-        <v>161</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="K27" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="L27" s="39"/>
-      <c r="M27" s="39"/>
-      <c r="N27" s="39"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="41"/>
-      <c r="T27" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A28" s="36">
-        <v>162</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="F28" s="42">
-        <v>45216</v>
-      </c>
-      <c r="G28" s="43">
-        <v>45216.737500000003</v>
-      </c>
-      <c r="H28" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="J28" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="M28" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N28" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="O28" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P28" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="40"/>
-      <c r="S28" s="41"/>
-      <c r="T28" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A29" s="36">
-        <v>163</v>
-      </c>
-      <c r="B29" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="42">
-        <v>45217</v>
-      </c>
-      <c r="G29" s="43">
-        <v>45217.377083333333</v>
-      </c>
-      <c r="H29" s="45" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="J29" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="39"/>
-      <c r="L29" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="M29" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N29" s="44" t="s">
-        <v>136</v>
-      </c>
-      <c r="O29" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P29" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q29" s="39"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="41"/>
-      <c r="T29" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A30" s="36">
-        <v>164</v>
-      </c>
-      <c r="B30" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="42">
-        <v>45217</v>
-      </c>
-      <c r="G30" s="43">
-        <v>45217.393055555556</v>
-      </c>
-      <c r="H30" s="45" t="s">
-        <v>138</v>
-      </c>
-      <c r="I30" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="J30" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K30" s="39"/>
-      <c r="L30" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="M30" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="O30" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P30" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q30" s="39"/>
-      <c r="R30" s="40"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="255" x14ac:dyDescent="0.25">
-      <c r="A31" s="36">
-        <v>165</v>
-      </c>
-      <c r="B31" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="F31" s="42">
-        <v>45218</v>
-      </c>
-      <c r="G31" s="43">
-        <v>45218.370138888888</v>
-      </c>
-      <c r="H31" s="45" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" s="44" t="s">
-        <v>143</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K31" s="39"/>
-      <c r="L31" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="M31" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N31" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="O31" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P31" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A32" s="36">
-        <v>166</v>
-      </c>
-      <c r="B32" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D32" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32" s="42">
-        <v>45218</v>
-      </c>
-      <c r="G32" s="43">
-        <v>45218.375694444447</v>
-      </c>
-      <c r="H32" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="I32" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="J32" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="M32" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="O32" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P32" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="41"/>
-      <c r="T32" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="156" x14ac:dyDescent="0.25">
-      <c r="A33" s="36">
-        <v>167</v>
-      </c>
-      <c r="B33" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="42">
-        <v>45218</v>
-      </c>
-      <c r="G33" s="43">
-        <v>45218.384027777778</v>
-      </c>
-      <c r="H33" s="45" t="s">
-        <v>151</v>
-      </c>
-      <c r="I33" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="J33" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="M33" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N33" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="O33" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P33" s="46" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="41"/>
-      <c r="T33" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="270" x14ac:dyDescent="0.25">
-      <c r="A34" s="36">
-        <v>168</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F34" s="42">
-        <v>45218</v>
-      </c>
-      <c r="G34" s="43">
-        <v>45218.393750000003</v>
-      </c>
-      <c r="H34" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="I34" s="44" t="s">
-        <v>156</v>
-      </c>
-      <c r="J34" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="M34" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N34" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="O34" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="P34" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="40"/>
-      <c r="S34" s="41"/>
-      <c r="T34" s="39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A35" s="36">
-        <v>169</v>
-      </c>
-      <c r="B35" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="K35" s="46" t="s">
-        <v>159</v>
-      </c>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="41"/>
-      <c r="T35" s="39" t="s">
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="34" t="s">
         <v>29</v>
       </c>
     </row>
@@ -17603,7 +17640,7 @@
       <formula1>"SI,NO"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:K10 L11:M12 O11:O12 Q11:Q12 N11 P11 L19:M20 O28:O34 Q20 J11:J35 L28:M34 O19:O20" xr:uid="{495CFEFA-83DC-4FA6-8B64-05A62D2034F0}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J10:K10 L11:M12 O11:O12 Q11:Q12 O19:O20 P11 L19:M20 O28:O34 Q20 J11:J35 L28:M34" xr:uid="{495CFEFA-83DC-4FA6-8B64-05A62D2034F0}">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/GATEWAY/A1#111GESANTHCSSRLXX/GESANTHCS_SRL/ENERGY-RSA/V.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111GESANTHCSSRLXX/GESANTHCS_SRL/ENERGY-RSA/V.2.0/report-checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xDevelop\Integrazioni\FSE2.0\Accreditamento\RSA\xValidazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D2E901-3AB7-465B-B23A-59877A0963B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249E69F0-DD6D-4BA8-A188-CFC362D452E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" sheetId="1" r:id="rId1"/>
@@ -649,12 +649,6 @@
     </r>
   </si>
   <si>
-    <t>0d3dfb019a4ffc72</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.120.4.4.ec7b7a855915fadb7e3e783a228162dc1b83b318fb8ec8a18fb44f2b20cb9973.95c96e35ae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>aede51b36eb38d5f</t>
   </si>
   <si>
@@ -673,6 +667,12 @@
   </si>
   <si>
     <t>ce111cc2fca559ec</t>
+  </si>
+  <si>
+    <t>5b115215a5e21ef8</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.120.4.4.ec7b7a855915fadb7e3e783a228162dc1b83b318fb8ec8a18fb44f2b20cb9973.1fa23faad0^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -753,7 +753,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -926,11 +926,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1032,9 +1045,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1062,8 +1072,20 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1386,36 +1408,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T707"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="27" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="27" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="44.140625" style="27" customWidth="1"/>
-    <col min="5" max="5" width="104.7109375" style="27" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="27" customWidth="1"/>
+    <col min="1" max="1" width="7.88671875" style="27" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" style="27" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="44.109375" style="27" customWidth="1"/>
+    <col min="5" max="5" width="104.6640625" style="27" customWidth="1"/>
+    <col min="6" max="6" width="25.5546875" style="27" customWidth="1"/>
+    <col min="7" max="7" width="18.44140625" style="27" customWidth="1"/>
     <col min="8" max="8" width="20" style="36" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" style="36" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" style="27" customWidth="1"/>
-    <col min="11" max="11" width="37.7109375" style="27" customWidth="1"/>
-    <col min="12" max="12" width="29.5703125" style="27" customWidth="1"/>
-    <col min="13" max="13" width="24.85546875" style="27" customWidth="1"/>
-    <col min="14" max="14" width="45.85546875" style="27" customWidth="1"/>
-    <col min="15" max="15" width="29.28515625" style="27" customWidth="1"/>
-    <col min="16" max="16" width="25.5703125" style="27" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="27" customWidth="1"/>
-    <col min="18" max="18" width="31.28515625" style="27" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="27" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" style="27" customWidth="1"/>
-    <col min="21" max="16384" width="14.5703125" style="27"/>
+    <col min="9" max="9" width="31.88671875" style="36" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" style="27" customWidth="1"/>
+    <col min="11" max="11" width="37.6640625" style="27" customWidth="1"/>
+    <col min="12" max="12" width="29.5546875" style="27" customWidth="1"/>
+    <col min="13" max="13" width="24.88671875" style="27" customWidth="1"/>
+    <col min="14" max="14" width="45.88671875" style="27" customWidth="1"/>
+    <col min="15" max="15" width="29.33203125" style="27" customWidth="1"/>
+    <col min="16" max="16" width="25.5546875" style="27" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="27" customWidth="1"/>
+    <col min="18" max="18" width="31.33203125" style="27" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="27" customWidth="1"/>
+    <col min="20" max="20" width="22.33203125" style="27" customWidth="1"/>
+    <col min="21" max="16384" width="14.5546875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20"/>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -1437,15 +1459,15 @@
       <c r="S1" s="26"/>
       <c r="T1" s="23"/>
     </row>
-    <row r="2" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:20" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="20"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
@@ -1463,15 +1485,15 @@
       <c r="S2" s="26"/>
       <c r="T2" s="23"/>
     </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="51" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="51"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="20"/>
       <c r="F3" s="21"/>
       <c r="G3" s="21"/>
@@ -1489,13 +1511,13 @@
       <c r="S3" s="26"/>
       <c r="T3" s="23"/>
     </row>
-    <row r="4" spans="1:20" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="51" t="s">
+    <row r="4" spans="1:20" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="29"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
@@ -1513,13 +1535,13 @@
       <c r="S4" s="26"/>
       <c r="T4" s="23"/>
     </row>
-    <row r="5" spans="1:20" ht="15.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51" t="s">
+    <row r="5" spans="1:20" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="20"/>
       <c r="F5" s="21"/>
       <c r="G5" s="21"/>
@@ -1537,9 +1559,9 @@
       <c r="S5" s="26"/>
       <c r="T5" s="23"/>
     </row>
-    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
+    <row r="6" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="30"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1559,7 +1581,7 @@
       <c r="S6" s="26"/>
       <c r="T6" s="23"/>
     </row>
-    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30"/>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -1581,7 +1603,7 @@
       <c r="S7" s="26"/>
       <c r="T7" s="23"/>
     </row>
-    <row r="8" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20"/>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
@@ -1603,7 +1625,7 @@
       <c r="S8" s="26"/>
       <c r="T8" s="23"/>
     </row>
-    <row r="9" spans="1:20" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="36.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28" t="s">
         <v>5</v>
       </c>
@@ -1665,7 +1687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="150" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>32</v>
       </c>
@@ -1703,7 +1725,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="240" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>40</v>
       </c>
@@ -1719,16 +1741,16 @@
       <c r="E11" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="45">
+      <c r="F11" s="37">
         <v>45219</v>
       </c>
-      <c r="G11" s="44">
+      <c r="G11" s="38">
         <v>45219.425000000003</v>
       </c>
-      <c r="H11" s="52" t="s">
-        <v>161</v>
-      </c>
-      <c r="I11" s="43" t="s">
+      <c r="H11" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="40" t="s">
         <v>105</v>
       </c>
       <c r="J11" s="34" t="s">
@@ -1741,8 +1763,8 @@
       <c r="M11" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="N11" s="42" t="s">
-        <v>160</v>
+      <c r="N11" s="52" t="s">
+        <v>158</v>
       </c>
       <c r="O11" s="34" t="s">
         <v>27</v>
@@ -1757,7 +1779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>48</v>
       </c>
@@ -1799,7 +1821,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A13" s="31">
         <v>147</v>
       </c>
@@ -1843,7 +1865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>148</v>
       </c>
@@ -1859,17 +1881,17 @@
       <c r="E14" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="45">
-        <v>45219</v>
-      </c>
-      <c r="G14" s="44">
-        <v>45219.385416666664</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>154</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>155</v>
+      <c r="F14" s="44">
+        <v>45220</v>
+      </c>
+      <c r="G14" s="43">
+        <v>45220.561805555553</v>
+      </c>
+      <c r="H14" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>161</v>
       </c>
       <c r="J14" s="34" t="s">
         <v>27</v>
@@ -1887,7 +1909,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>149</v>
       </c>
@@ -1903,19 +1925,19 @@
       <c r="E15" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="F15" s="45">
+      <c r="F15" s="37">
         <v>45219</v>
       </c>
-      <c r="G15" s="44">
+      <c r="G15" s="53">
         <v>45219.400694444441</v>
       </c>
-      <c r="H15" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="J15" s="34" t="s">
+      <c r="H15" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" s="55" t="s">
         <v>27</v>
       </c>
       <c r="K15" s="34"/>
@@ -1931,7 +1953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="165" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>150</v>
       </c>
@@ -1947,17 +1969,17 @@
       <c r="E16" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="45">
+      <c r="F16" s="37">
         <v>45219</v>
       </c>
-      <c r="G16" s="44">
+      <c r="G16" s="38">
         <v>45219.40902777778</v>
       </c>
-      <c r="H16" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>159</v>
+      <c r="H16" s="40" t="s">
+        <v>156</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>157</v>
       </c>
       <c r="J16" s="34" t="s">
         <v>27</v>
@@ -1975,7 +1997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>151</v>
       </c>
@@ -2013,7 +2035,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>152</v>
       </c>
@@ -2051,7 +2073,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="330" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="288" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>153</v>
       </c>
@@ -2105,7 +2127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="225" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>154</v>
       </c>
@@ -2159,7 +2181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>155</v>
       </c>
@@ -2197,7 +2219,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>156</v>
       </c>
@@ -2235,7 +2257,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <v>157</v>
       </c>
@@ -2273,7 +2295,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>158</v>
       </c>
@@ -2311,7 +2333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>159</v>
       </c>
@@ -2349,7 +2371,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>160</v>
       </c>
@@ -2387,7 +2409,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <v>161</v>
       </c>
@@ -2425,7 +2447,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
         <v>162</v>
       </c>
@@ -2479,7 +2501,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <v>163</v>
       </c>
@@ -2533,7 +2555,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
         <v>164</v>
       </c>
@@ -2587,7 +2609,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:20" ht="255" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="216" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <v>165</v>
       </c>
@@ -2641,7 +2663,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>166</v>
       </c>
@@ -2695,7 +2717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="156" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="156" x14ac:dyDescent="0.3">
       <c r="A33" s="31">
         <v>167</v>
       </c>
@@ -2749,7 +2771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:20" ht="270" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
         <v>168</v>
       </c>
@@ -2803,7 +2825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:20" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
         <v>169</v>
       </c>
@@ -2841,7 +2863,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -2863,7 +2885,7 @@
       <c r="S36" s="26"/>
       <c r="T36" s="23"/>
     </row>
-    <row r="37" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -2885,7 +2907,7 @@
       <c r="S37" s="26"/>
       <c r="T37" s="23"/>
     </row>
-    <row r="38" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -2907,7 +2929,7 @@
       <c r="S38" s="26"/>
       <c r="T38" s="23"/>
     </row>
-    <row r="39" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -2929,7 +2951,7 @@
       <c r="S39" s="26"/>
       <c r="T39" s="23"/>
     </row>
-    <row r="40" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -2951,7 +2973,7 @@
       <c r="S40" s="26"/>
       <c r="T40" s="23"/>
     </row>
-    <row r="41" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -2973,7 +2995,7 @@
       <c r="S41" s="26"/>
       <c r="T41" s="23"/>
     </row>
-    <row r="42" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -2995,7 +3017,7 @@
       <c r="S42" s="26"/>
       <c r="T42" s="23"/>
     </row>
-    <row r="43" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -3017,7 +3039,7 @@
       <c r="S43" s="26"/>
       <c r="T43" s="23"/>
     </row>
-    <row r="44" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -3039,7 +3061,7 @@
       <c r="S44" s="26"/>
       <c r="T44" s="23"/>
     </row>
-    <row r="45" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -3061,7 +3083,7 @@
       <c r="S45" s="26"/>
       <c r="T45" s="23"/>
     </row>
-    <row r="46" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -3083,7 +3105,7 @@
       <c r="S46" s="26"/>
       <c r="T46" s="23"/>
     </row>
-    <row r="47" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -3105,7 +3127,7 @@
       <c r="S47" s="26"/>
       <c r="T47" s="23"/>
     </row>
-    <row r="48" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
       <c r="B48" s="20"/>
       <c r="C48" s="20"/>
@@ -3127,7 +3149,7 @@
       <c r="S48" s="26"/>
       <c r="T48" s="23"/>
     </row>
-    <row r="49" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20"/>
@@ -3149,7 +3171,7 @@
       <c r="S49" s="26"/>
       <c r="T49" s="23"/>
     </row>
-    <row r="50" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
       <c r="B50" s="20"/>
       <c r="C50" s="20"/>
@@ -3171,7 +3193,7 @@
       <c r="S50" s="26"/>
       <c r="T50" s="23"/>
     </row>
-    <row r="51" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
@@ -3193,7 +3215,7 @@
       <c r="S51" s="26"/>
       <c r="T51" s="23"/>
     </row>
-    <row r="52" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
       <c r="B52" s="20"/>
       <c r="C52" s="20"/>
@@ -3215,7 +3237,7 @@
       <c r="S52" s="26"/>
       <c r="T52" s="23"/>
     </row>
-    <row r="53" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
       <c r="B53" s="20"/>
       <c r="C53" s="20"/>
@@ -3237,7 +3259,7 @@
       <c r="S53" s="26"/>
       <c r="T53" s="23"/>
     </row>
-    <row r="54" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
       <c r="B54" s="20"/>
       <c r="C54" s="20"/>
@@ -3259,7 +3281,7 @@
       <c r="S54" s="26"/>
       <c r="T54" s="23"/>
     </row>
-    <row r="55" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -3281,7 +3303,7 @@
       <c r="S55" s="26"/>
       <c r="T55" s="23"/>
     </row>
-    <row r="56" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
       <c r="B56" s="20"/>
       <c r="C56" s="20"/>
@@ -3303,7 +3325,7 @@
       <c r="S56" s="26"/>
       <c r="T56" s="23"/>
     </row>
-    <row r="57" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
       <c r="B57" s="20"/>
       <c r="C57" s="20"/>
@@ -3325,7 +3347,7 @@
       <c r="S57" s="26"/>
       <c r="T57" s="23"/>
     </row>
-    <row r="58" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
       <c r="B58" s="20"/>
       <c r="C58" s="20"/>
@@ -3347,7 +3369,7 @@
       <c r="S58" s="26"/>
       <c r="T58" s="23"/>
     </row>
-    <row r="59" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="20"/>
@@ -3369,7 +3391,7 @@
       <c r="S59" s="26"/>
       <c r="T59" s="23"/>
     </row>
-    <row r="60" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="20"/>
       <c r="B60" s="20"/>
       <c r="C60" s="20"/>
@@ -3391,7 +3413,7 @@
       <c r="S60" s="26"/>
       <c r="T60" s="23"/>
     </row>
-    <row r="61" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="20"/>
@@ -3413,7 +3435,7 @@
       <c r="S61" s="26"/>
       <c r="T61" s="23"/>
     </row>
-    <row r="62" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
       <c r="B62" s="20"/>
       <c r="C62" s="20"/>
@@ -3435,7 +3457,7 @@
       <c r="S62" s="26"/>
       <c r="T62" s="23"/>
     </row>
-    <row r="63" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="20"/>
@@ -3457,7 +3479,7 @@
       <c r="S63" s="26"/>
       <c r="T63" s="23"/>
     </row>
-    <row r="64" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
       <c r="B64" s="20"/>
       <c r="C64" s="20"/>
@@ -3479,7 +3501,7 @@
       <c r="S64" s="26"/>
       <c r="T64" s="23"/>
     </row>
-    <row r="65" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
       <c r="B65" s="20"/>
       <c r="C65" s="20"/>
@@ -3501,7 +3523,7 @@
       <c r="S65" s="26"/>
       <c r="T65" s="23"/>
     </row>
-    <row r="66" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="20"/>
       <c r="B66" s="20"/>
       <c r="C66" s="20"/>
@@ -3523,7 +3545,7 @@
       <c r="S66" s="26"/>
       <c r="T66" s="23"/>
     </row>
-    <row r="67" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
       <c r="B67" s="20"/>
       <c r="C67" s="20"/>
@@ -3545,7 +3567,7 @@
       <c r="S67" s="26"/>
       <c r="T67" s="23"/>
     </row>
-    <row r="68" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
       <c r="B68" s="20"/>
       <c r="C68" s="20"/>
@@ -3567,7 +3589,7 @@
       <c r="S68" s="26"/>
       <c r="T68" s="23"/>
     </row>
-    <row r="69" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="20"/>
       <c r="B69" s="20"/>
       <c r="C69" s="20"/>
@@ -3589,7 +3611,7 @@
       <c r="S69" s="26"/>
       <c r="T69" s="23"/>
     </row>
-    <row r="70" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="20"/>
       <c r="B70" s="20"/>
       <c r="C70" s="20"/>
@@ -3611,7 +3633,7 @@
       <c r="S70" s="26"/>
       <c r="T70" s="23"/>
     </row>
-    <row r="71" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="20"/>
       <c r="B71" s="20"/>
       <c r="C71" s="20"/>
@@ -3633,7 +3655,7 @@
       <c r="S71" s="26"/>
       <c r="T71" s="23"/>
     </row>
-    <row r="72" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="20"/>
       <c r="B72" s="20"/>
       <c r="C72" s="20"/>
@@ -3655,7 +3677,7 @@
       <c r="S72" s="26"/>
       <c r="T72" s="23"/>
     </row>
-    <row r="73" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="20"/>
       <c r="B73" s="20"/>
       <c r="C73" s="20"/>
@@ -3677,7 +3699,7 @@
       <c r="S73" s="26"/>
       <c r="T73" s="23"/>
     </row>
-    <row r="74" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="20"/>
       <c r="B74" s="20"/>
       <c r="C74" s="20"/>
@@ -3699,7 +3721,7 @@
       <c r="S74" s="26"/>
       <c r="T74" s="23"/>
     </row>
-    <row r="75" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="20"/>
       <c r="B75" s="20"/>
       <c r="C75" s="20"/>
@@ -3721,7 +3743,7 @@
       <c r="S75" s="26"/>
       <c r="T75" s="23"/>
     </row>
-    <row r="76" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="20"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -3743,7 +3765,7 @@
       <c r="S76" s="26"/>
       <c r="T76" s="23"/>
     </row>
-    <row r="77" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="20"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -3765,7 +3787,7 @@
       <c r="S77" s="26"/>
       <c r="T77" s="23"/>
     </row>
-    <row r="78" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -3787,7 +3809,7 @@
       <c r="S78" s="26"/>
       <c r="T78" s="23"/>
     </row>
-    <row r="79" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="20"/>
       <c r="B79" s="20"/>
       <c r="C79" s="20"/>
@@ -3809,7 +3831,7 @@
       <c r="S79" s="26"/>
       <c r="T79" s="23"/>
     </row>
-    <row r="80" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="20"/>
       <c r="B80" s="20"/>
       <c r="C80" s="20"/>
@@ -3831,7 +3853,7 @@
       <c r="S80" s="26"/>
       <c r="T80" s="23"/>
     </row>
-    <row r="81" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="20"/>
       <c r="B81" s="20"/>
       <c r="C81" s="20"/>
@@ -3853,7 +3875,7 @@
       <c r="S81" s="26"/>
       <c r="T81" s="23"/>
     </row>
-    <row r="82" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="20"/>
       <c r="B82" s="20"/>
       <c r="C82" s="20"/>
@@ -3875,7 +3897,7 @@
       <c r="S82" s="26"/>
       <c r="T82" s="23"/>
     </row>
-    <row r="83" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
       <c r="C83" s="20"/>
@@ -3897,7 +3919,7 @@
       <c r="S83" s="26"/>
       <c r="T83" s="23"/>
     </row>
-    <row r="84" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="20"/>
@@ -3919,7 +3941,7 @@
       <c r="S84" s="26"/>
       <c r="T84" s="23"/>
     </row>
-    <row r="85" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
       <c r="C85" s="20"/>
@@ -3941,7 +3963,7 @@
       <c r="S85" s="26"/>
       <c r="T85" s="23"/>
     </row>
-    <row r="86" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="20"/>
       <c r="B86" s="20"/>
       <c r="C86" s="20"/>
@@ -3963,7 +3985,7 @@
       <c r="S86" s="26"/>
       <c r="T86" s="23"/>
     </row>
-    <row r="87" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="20"/>
       <c r="B87" s="20"/>
       <c r="C87" s="20"/>
@@ -3985,7 +4007,7 @@
       <c r="S87" s="26"/>
       <c r="T87" s="23"/>
     </row>
-    <row r="88" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="20"/>
       <c r="B88" s="20"/>
       <c r="C88" s="20"/>
@@ -4007,7 +4029,7 @@
       <c r="S88" s="26"/>
       <c r="T88" s="23"/>
     </row>
-    <row r="89" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="20"/>
       <c r="B89" s="20"/>
       <c r="C89" s="20"/>
@@ -4029,7 +4051,7 @@
       <c r="S89" s="26"/>
       <c r="T89" s="23"/>
     </row>
-    <row r="90" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="20"/>
       <c r="B90" s="20"/>
       <c r="C90" s="20"/>
@@ -4051,7 +4073,7 @@
       <c r="S90" s="26"/>
       <c r="T90" s="23"/>
     </row>
-    <row r="91" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="20"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20"/>
@@ -4073,7 +4095,7 @@
       <c r="S91" s="26"/>
       <c r="T91" s="23"/>
     </row>
-    <row r="92" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="20"/>
       <c r="B92" s="20"/>
       <c r="C92" s="20"/>
@@ -4095,7 +4117,7 @@
       <c r="S92" s="26"/>
       <c r="T92" s="23"/>
     </row>
-    <row r="93" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="20"/>
       <c r="B93" s="20"/>
       <c r="C93" s="20"/>
@@ -4117,7 +4139,7 @@
       <c r="S93" s="26"/>
       <c r="T93" s="23"/>
     </row>
-    <row r="94" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="20"/>
       <c r="B94" s="20"/>
       <c r="C94" s="20"/>
@@ -4139,7 +4161,7 @@
       <c r="S94" s="26"/>
       <c r="T94" s="23"/>
     </row>
-    <row r="95" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="20"/>
       <c r="B95" s="20"/>
       <c r="C95" s="20"/>
@@ -4161,7 +4183,7 @@
       <c r="S95" s="26"/>
       <c r="T95" s="23"/>
     </row>
-    <row r="96" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="20"/>
       <c r="B96" s="20"/>
       <c r="C96" s="20"/>
@@ -4183,7 +4205,7 @@
       <c r="S96" s="26"/>
       <c r="T96" s="23"/>
     </row>
-    <row r="97" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="20"/>
       <c r="B97" s="20"/>
       <c r="C97" s="20"/>
@@ -4205,7 +4227,7 @@
       <c r="S97" s="26"/>
       <c r="T97" s="23"/>
     </row>
-    <row r="98" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="20"/>
       <c r="B98" s="20"/>
       <c r="C98" s="20"/>
@@ -4227,7 +4249,7 @@
       <c r="S98" s="26"/>
       <c r="T98" s="23"/>
     </row>
-    <row r="99" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="20"/>
       <c r="B99" s="20"/>
       <c r="C99" s="20"/>
@@ -4249,7 +4271,7 @@
       <c r="S99" s="26"/>
       <c r="T99" s="23"/>
     </row>
-    <row r="100" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="20"/>
       <c r="B100" s="20"/>
       <c r="C100" s="20"/>
@@ -4271,7 +4293,7 @@
       <c r="S100" s="26"/>
       <c r="T100" s="23"/>
     </row>
-    <row r="101" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="20"/>
       <c r="B101" s="20"/>
       <c r="C101" s="20"/>
@@ -4293,7 +4315,7 @@
       <c r="S101" s="26"/>
       <c r="T101" s="23"/>
     </row>
-    <row r="102" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="20"/>
       <c r="B102" s="20"/>
       <c r="C102" s="20"/>
@@ -4315,7 +4337,7 @@
       <c r="S102" s="26"/>
       <c r="T102" s="23"/>
     </row>
-    <row r="103" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="20"/>
       <c r="B103" s="20"/>
       <c r="C103" s="20"/>
@@ -4337,7 +4359,7 @@
       <c r="S103" s="26"/>
       <c r="T103" s="23"/>
     </row>
-    <row r="104" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="20"/>
       <c r="B104" s="20"/>
       <c r="C104" s="20"/>
@@ -4359,7 +4381,7 @@
       <c r="S104" s="26"/>
       <c r="T104" s="23"/>
     </row>
-    <row r="105" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="20"/>
       <c r="B105" s="20"/>
       <c r="C105" s="20"/>
@@ -4381,7 +4403,7 @@
       <c r="S105" s="26"/>
       <c r="T105" s="23"/>
     </row>
-    <row r="106" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="20"/>
       <c r="B106" s="20"/>
       <c r="C106" s="20"/>
@@ -4403,7 +4425,7 @@
       <c r="S106" s="26"/>
       <c r="T106" s="23"/>
     </row>
-    <row r="107" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="20"/>
       <c r="B107" s="20"/>
       <c r="C107" s="20"/>
@@ -4425,7 +4447,7 @@
       <c r="S107" s="26"/>
       <c r="T107" s="23"/>
     </row>
-    <row r="108" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="20"/>
       <c r="B108" s="20"/>
       <c r="C108" s="20"/>
@@ -4447,7 +4469,7 @@
       <c r="S108" s="26"/>
       <c r="T108" s="23"/>
     </row>
-    <row r="109" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="20"/>
       <c r="B109" s="20"/>
       <c r="C109" s="20"/>
@@ -4469,7 +4491,7 @@
       <c r="S109" s="26"/>
       <c r="T109" s="23"/>
     </row>
-    <row r="110" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="20"/>
       <c r="B110" s="20"/>
       <c r="C110" s="20"/>
@@ -4491,7 +4513,7 @@
       <c r="S110" s="26"/>
       <c r="T110" s="23"/>
     </row>
-    <row r="111" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="20"/>
       <c r="B111" s="20"/>
       <c r="C111" s="20"/>
@@ -4513,7 +4535,7 @@
       <c r="S111" s="26"/>
       <c r="T111" s="23"/>
     </row>
-    <row r="112" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="20"/>
       <c r="B112" s="20"/>
       <c r="C112" s="20"/>
@@ -4535,7 +4557,7 @@
       <c r="S112" s="26"/>
       <c r="T112" s="23"/>
     </row>
-    <row r="113" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="20"/>
       <c r="B113" s="20"/>
       <c r="C113" s="20"/>
@@ -4557,7 +4579,7 @@
       <c r="S113" s="26"/>
       <c r="T113" s="23"/>
     </row>
-    <row r="114" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="20"/>
       <c r="B114" s="20"/>
       <c r="C114" s="20"/>
@@ -4579,7 +4601,7 @@
       <c r="S114" s="26"/>
       <c r="T114" s="23"/>
     </row>
-    <row r="115" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="20"/>
       <c r="B115" s="20"/>
       <c r="C115" s="20"/>
@@ -4601,7 +4623,7 @@
       <c r="S115" s="26"/>
       <c r="T115" s="23"/>
     </row>
-    <row r="116" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="20"/>
       <c r="B116" s="20"/>
       <c r="C116" s="20"/>
@@ -4623,7 +4645,7 @@
       <c r="S116" s="26"/>
       <c r="T116" s="23"/>
     </row>
-    <row r="117" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="20"/>
       <c r="B117" s="20"/>
       <c r="C117" s="20"/>
@@ -4645,7 +4667,7 @@
       <c r="S117" s="26"/>
       <c r="T117" s="23"/>
     </row>
-    <row r="118" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="20"/>
       <c r="B118" s="20"/>
       <c r="C118" s="20"/>
@@ -4667,7 +4689,7 @@
       <c r="S118" s="26"/>
       <c r="T118" s="23"/>
     </row>
-    <row r="119" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="20"/>
       <c r="B119" s="20"/>
       <c r="C119" s="20"/>
@@ -4689,7 +4711,7 @@
       <c r="S119" s="26"/>
       <c r="T119" s="23"/>
     </row>
-    <row r="120" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="20"/>
       <c r="B120" s="20"/>
       <c r="C120" s="20"/>
@@ -4711,7 +4733,7 @@
       <c r="S120" s="26"/>
       <c r="T120" s="23"/>
     </row>
-    <row r="121" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="20"/>
       <c r="B121" s="20"/>
       <c r="C121" s="20"/>
@@ -4733,7 +4755,7 @@
       <c r="S121" s="26"/>
       <c r="T121" s="23"/>
     </row>
-    <row r="122" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="20"/>
       <c r="B122" s="20"/>
       <c r="C122" s="20"/>
@@ -4755,7 +4777,7 @@
       <c r="S122" s="26"/>
       <c r="T122" s="23"/>
     </row>
-    <row r="123" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="20"/>
       <c r="B123" s="20"/>
       <c r="C123" s="20"/>
@@ -4777,7 +4799,7 @@
       <c r="S123" s="26"/>
       <c r="T123" s="23"/>
     </row>
-    <row r="124" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="20"/>
       <c r="B124" s="20"/>
       <c r="C124" s="20"/>
@@ -4799,7 +4821,7 @@
       <c r="S124" s="26"/>
       <c r="T124" s="23"/>
     </row>
-    <row r="125" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="20"/>
       <c r="B125" s="20"/>
       <c r="C125" s="20"/>
@@ -4821,7 +4843,7 @@
       <c r="S125" s="26"/>
       <c r="T125" s="23"/>
     </row>
-    <row r="126" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="20"/>
       <c r="B126" s="20"/>
       <c r="C126" s="20"/>
@@ -4843,7 +4865,7 @@
       <c r="S126" s="26"/>
       <c r="T126" s="23"/>
     </row>
-    <row r="127" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="20"/>
       <c r="B127" s="20"/>
       <c r="C127" s="20"/>
@@ -4865,7 +4887,7 @@
       <c r="S127" s="26"/>
       <c r="T127" s="23"/>
     </row>
-    <row r="128" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="20"/>
       <c r="B128" s="20"/>
       <c r="C128" s="20"/>
@@ -4887,7 +4909,7 @@
       <c r="S128" s="26"/>
       <c r="T128" s="23"/>
     </row>
-    <row r="129" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="20"/>
       <c r="B129" s="20"/>
       <c r="C129" s="20"/>
@@ -4909,7 +4931,7 @@
       <c r="S129" s="26"/>
       <c r="T129" s="23"/>
     </row>
-    <row r="130" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="20"/>
       <c r="B130" s="20"/>
       <c r="C130" s="20"/>
@@ -4931,7 +4953,7 @@
       <c r="S130" s="26"/>
       <c r="T130" s="23"/>
     </row>
-    <row r="131" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="20"/>
       <c r="B131" s="20"/>
       <c r="C131" s="20"/>
@@ -4953,7 +4975,7 @@
       <c r="S131" s="26"/>
       <c r="T131" s="23"/>
     </row>
-    <row r="132" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="20"/>
       <c r="B132" s="20"/>
       <c r="C132" s="20"/>
@@ -4975,7 +4997,7 @@
       <c r="S132" s="26"/>
       <c r="T132" s="23"/>
     </row>
-    <row r="133" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="20"/>
       <c r="B133" s="20"/>
       <c r="C133" s="20"/>
@@ -4997,7 +5019,7 @@
       <c r="S133" s="26"/>
       <c r="T133" s="23"/>
     </row>
-    <row r="134" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="20"/>
       <c r="B134" s="20"/>
       <c r="C134" s="20"/>
@@ -5019,7 +5041,7 @@
       <c r="S134" s="26"/>
       <c r="T134" s="23"/>
     </row>
-    <row r="135" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="20"/>
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
@@ -5041,7 +5063,7 @@
       <c r="S135" s="26"/>
       <c r="T135" s="23"/>
     </row>
-    <row r="136" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="20"/>
       <c r="B136" s="20"/>
       <c r="C136" s="20"/>
@@ -5063,7 +5085,7 @@
       <c r="S136" s="26"/>
       <c r="T136" s="23"/>
     </row>
-    <row r="137" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="20"/>
       <c r="B137" s="20"/>
       <c r="C137" s="20"/>
@@ -5085,7 +5107,7 @@
       <c r="S137" s="26"/>
       <c r="T137" s="23"/>
     </row>
-    <row r="138" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="20"/>
       <c r="B138" s="20"/>
       <c r="C138" s="20"/>
@@ -5107,7 +5129,7 @@
       <c r="S138" s="26"/>
       <c r="T138" s="23"/>
     </row>
-    <row r="139" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="20"/>
       <c r="B139" s="20"/>
       <c r="C139" s="20"/>
@@ -5129,7 +5151,7 @@
       <c r="S139" s="26"/>
       <c r="T139" s="23"/>
     </row>
-    <row r="140" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="20"/>
       <c r="B140" s="20"/>
       <c r="C140" s="20"/>
@@ -5151,7 +5173,7 @@
       <c r="S140" s="26"/>
       <c r="T140" s="23"/>
     </row>
-    <row r="141" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="20"/>
       <c r="B141" s="20"/>
       <c r="C141" s="20"/>
@@ -5173,7 +5195,7 @@
       <c r="S141" s="26"/>
       <c r="T141" s="23"/>
     </row>
-    <row r="142" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="20"/>
       <c r="B142" s="20"/>
       <c r="C142" s="20"/>
@@ -5195,7 +5217,7 @@
       <c r="S142" s="26"/>
       <c r="T142" s="23"/>
     </row>
-    <row r="143" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="20"/>
       <c r="B143" s="20"/>
       <c r="C143" s="20"/>
@@ -5217,7 +5239,7 @@
       <c r="S143" s="26"/>
       <c r="T143" s="23"/>
     </row>
-    <row r="144" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="20"/>
       <c r="B144" s="20"/>
       <c r="C144" s="20"/>
@@ -5239,7 +5261,7 @@
       <c r="S144" s="26"/>
       <c r="T144" s="23"/>
     </row>
-    <row r="145" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="20"/>
       <c r="B145" s="20"/>
       <c r="C145" s="20"/>
@@ -5261,7 +5283,7 @@
       <c r="S145" s="26"/>
       <c r="T145" s="23"/>
     </row>
-    <row r="146" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="20"/>
       <c r="B146" s="20"/>
       <c r="C146" s="20"/>
@@ -5283,7 +5305,7 @@
       <c r="S146" s="26"/>
       <c r="T146" s="23"/>
     </row>
-    <row r="147" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="B147" s="20"/>
       <c r="C147" s="20"/>
@@ -5305,7 +5327,7 @@
       <c r="S147" s="26"/>
       <c r="T147" s="23"/>
     </row>
-    <row r="148" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="20"/>
       <c r="B148" s="20"/>
       <c r="C148" s="20"/>
@@ -5327,7 +5349,7 @@
       <c r="S148" s="26"/>
       <c r="T148" s="23"/>
     </row>
-    <row r="149" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="20"/>
       <c r="B149" s="20"/>
       <c r="C149" s="20"/>
@@ -5349,7 +5371,7 @@
       <c r="S149" s="26"/>
       <c r="T149" s="23"/>
     </row>
-    <row r="150" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="20"/>
       <c r="B150" s="20"/>
       <c r="C150" s="20"/>
@@ -5371,7 +5393,7 @@
       <c r="S150" s="26"/>
       <c r="T150" s="23"/>
     </row>
-    <row r="151" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="20"/>
       <c r="B151" s="20"/>
       <c r="C151" s="20"/>
@@ -5393,7 +5415,7 @@
       <c r="S151" s="26"/>
       <c r="T151" s="23"/>
     </row>
-    <row r="152" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="20"/>
       <c r="B152" s="20"/>
       <c r="C152" s="20"/>
@@ -5415,7 +5437,7 @@
       <c r="S152" s="26"/>
       <c r="T152" s="23"/>
     </row>
-    <row r="153" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="20"/>
       <c r="B153" s="20"/>
       <c r="C153" s="20"/>
@@ -5437,7 +5459,7 @@
       <c r="S153" s="26"/>
       <c r="T153" s="23"/>
     </row>
-    <row r="154" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="20"/>
       <c r="B154" s="20"/>
       <c r="C154" s="20"/>
@@ -5459,7 +5481,7 @@
       <c r="S154" s="26"/>
       <c r="T154" s="23"/>
     </row>
-    <row r="155" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="20"/>
       <c r="B155" s="20"/>
       <c r="C155" s="20"/>
@@ -5481,7 +5503,7 @@
       <c r="S155" s="26"/>
       <c r="T155" s="23"/>
     </row>
-    <row r="156" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="20"/>
       <c r="B156" s="20"/>
       <c r="C156" s="20"/>
@@ -5503,7 +5525,7 @@
       <c r="S156" s="26"/>
       <c r="T156" s="23"/>
     </row>
-    <row r="157" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="20"/>
       <c r="B157" s="20"/>
       <c r="C157" s="20"/>
@@ -5525,7 +5547,7 @@
       <c r="S157" s="26"/>
       <c r="T157" s="23"/>
     </row>
-    <row r="158" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="20"/>
       <c r="B158" s="20"/>
       <c r="C158" s="20"/>
@@ -5547,7 +5569,7 @@
       <c r="S158" s="26"/>
       <c r="T158" s="23"/>
     </row>
-    <row r="159" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="20"/>
       <c r="B159" s="20"/>
       <c r="C159" s="20"/>
@@ -5569,7 +5591,7 @@
       <c r="S159" s="26"/>
       <c r="T159" s="23"/>
     </row>
-    <row r="160" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="20"/>
       <c r="B160" s="20"/>
       <c r="C160" s="20"/>
@@ -5591,7 +5613,7 @@
       <c r="S160" s="26"/>
       <c r="T160" s="23"/>
     </row>
-    <row r="161" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="20"/>
       <c r="B161" s="20"/>
       <c r="C161" s="20"/>
@@ -5613,7 +5635,7 @@
       <c r="S161" s="26"/>
       <c r="T161" s="23"/>
     </row>
-    <row r="162" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="20"/>
       <c r="B162" s="20"/>
       <c r="C162" s="20"/>
@@ -5635,7 +5657,7 @@
       <c r="S162" s="26"/>
       <c r="T162" s="23"/>
     </row>
-    <row r="163" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="20"/>
       <c r="B163" s="20"/>
       <c r="C163" s="20"/>
@@ -5657,7 +5679,7 @@
       <c r="S163" s="26"/>
       <c r="T163" s="23"/>
     </row>
-    <row r="164" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="20"/>
       <c r="B164" s="20"/>
       <c r="C164" s="20"/>
@@ -5679,7 +5701,7 @@
       <c r="S164" s="26"/>
       <c r="T164" s="23"/>
     </row>
-    <row r="165" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="20"/>
       <c r="B165" s="20"/>
       <c r="C165" s="20"/>
@@ -5701,7 +5723,7 @@
       <c r="S165" s="26"/>
       <c r="T165" s="23"/>
     </row>
-    <row r="166" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="20"/>
       <c r="B166" s="20"/>
       <c r="C166" s="20"/>
@@ -5723,7 +5745,7 @@
       <c r="S166" s="26"/>
       <c r="T166" s="23"/>
     </row>
-    <row r="167" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="20"/>
       <c r="B167" s="20"/>
       <c r="C167" s="20"/>
@@ -5745,7 +5767,7 @@
       <c r="S167" s="26"/>
       <c r="T167" s="23"/>
     </row>
-    <row r="168" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="20"/>
       <c r="B168" s="20"/>
       <c r="C168" s="20"/>
@@ -5767,7 +5789,7 @@
       <c r="S168" s="26"/>
       <c r="T168" s="23"/>
     </row>
-    <row r="169" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="20"/>
       <c r="B169" s="20"/>
       <c r="C169" s="20"/>
@@ -5789,7 +5811,7 @@
       <c r="S169" s="26"/>
       <c r="T169" s="23"/>
     </row>
-    <row r="170" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="20"/>
       <c r="B170" s="20"/>
       <c r="C170" s="20"/>
@@ -5811,7 +5833,7 @@
       <c r="S170" s="26"/>
       <c r="T170" s="23"/>
     </row>
-    <row r="171" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="20"/>
       <c r="B171" s="20"/>
       <c r="C171" s="20"/>
@@ -5833,7 +5855,7 @@
       <c r="S171" s="26"/>
       <c r="T171" s="23"/>
     </row>
-    <row r="172" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="20"/>
       <c r="B172" s="20"/>
       <c r="C172" s="20"/>
@@ -5855,7 +5877,7 @@
       <c r="S172" s="26"/>
       <c r="T172" s="23"/>
     </row>
-    <row r="173" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="20"/>
       <c r="B173" s="20"/>
       <c r="C173" s="20"/>
@@ -5877,7 +5899,7 @@
       <c r="S173" s="26"/>
       <c r="T173" s="23"/>
     </row>
-    <row r="174" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="20"/>
       <c r="B174" s="20"/>
       <c r="C174" s="20"/>
@@ -5899,7 +5921,7 @@
       <c r="S174" s="26"/>
       <c r="T174" s="23"/>
     </row>
-    <row r="175" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="20"/>
       <c r="B175" s="20"/>
       <c r="C175" s="20"/>
@@ -5921,7 +5943,7 @@
       <c r="S175" s="26"/>
       <c r="T175" s="23"/>
     </row>
-    <row r="176" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="20"/>
       <c r="B176" s="20"/>
       <c r="C176" s="20"/>
@@ -5943,7 +5965,7 @@
       <c r="S176" s="26"/>
       <c r="T176" s="23"/>
     </row>
-    <row r="177" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="20"/>
       <c r="B177" s="20"/>
       <c r="C177" s="20"/>
@@ -5965,7 +5987,7 @@
       <c r="S177" s="26"/>
       <c r="T177" s="23"/>
     </row>
-    <row r="178" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="20"/>
       <c r="B178" s="20"/>
       <c r="C178" s="20"/>
@@ -5987,7 +6009,7 @@
       <c r="S178" s="26"/>
       <c r="T178" s="23"/>
     </row>
-    <row r="179" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="20"/>
       <c r="B179" s="20"/>
       <c r="C179" s="20"/>
@@ -6009,7 +6031,7 @@
       <c r="S179" s="26"/>
       <c r="T179" s="23"/>
     </row>
-    <row r="180" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="20"/>
       <c r="B180" s="20"/>
       <c r="C180" s="20"/>
@@ -6031,7 +6053,7 @@
       <c r="S180" s="26"/>
       <c r="T180" s="23"/>
     </row>
-    <row r="181" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="20"/>
       <c r="B181" s="20"/>
       <c r="C181" s="20"/>
@@ -6053,7 +6075,7 @@
       <c r="S181" s="26"/>
       <c r="T181" s="23"/>
     </row>
-    <row r="182" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="20"/>
       <c r="B182" s="20"/>
       <c r="C182" s="20"/>
@@ -6075,7 +6097,7 @@
       <c r="S182" s="26"/>
       <c r="T182" s="23"/>
     </row>
-    <row r="183" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="20"/>
       <c r="B183" s="20"/>
       <c r="C183" s="20"/>
@@ -6097,7 +6119,7 @@
       <c r="S183" s="26"/>
       <c r="T183" s="23"/>
     </row>
-    <row r="184" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="20"/>
       <c r="B184" s="20"/>
       <c r="C184" s="20"/>
@@ -6119,7 +6141,7 @@
       <c r="S184" s="26"/>
       <c r="T184" s="23"/>
     </row>
-    <row r="185" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="20"/>
       <c r="B185" s="20"/>
       <c r="C185" s="20"/>
@@ -6141,7 +6163,7 @@
       <c r="S185" s="26"/>
       <c r="T185" s="23"/>
     </row>
-    <row r="186" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="20"/>
       <c r="B186" s="20"/>
       <c r="C186" s="20"/>
@@ -6163,7 +6185,7 @@
       <c r="S186" s="26"/>
       <c r="T186" s="23"/>
     </row>
-    <row r="187" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="20"/>
       <c r="B187" s="20"/>
       <c r="C187" s="20"/>
@@ -6185,7 +6207,7 @@
       <c r="S187" s="26"/>
       <c r="T187" s="23"/>
     </row>
-    <row r="188" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="20"/>
       <c r="B188" s="20"/>
       <c r="C188" s="20"/>
@@ -6207,7 +6229,7 @@
       <c r="S188" s="26"/>
       <c r="T188" s="23"/>
     </row>
-    <row r="189" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="20"/>
       <c r="B189" s="20"/>
       <c r="C189" s="20"/>
@@ -6229,7 +6251,7 @@
       <c r="S189" s="26"/>
       <c r="T189" s="23"/>
     </row>
-    <row r="190" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="20"/>
       <c r="B190" s="20"/>
       <c r="C190" s="20"/>
@@ -6251,7 +6273,7 @@
       <c r="S190" s="26"/>
       <c r="T190" s="23"/>
     </row>
-    <row r="191" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="20"/>
       <c r="B191" s="20"/>
       <c r="C191" s="20"/>
@@ -6273,7 +6295,7 @@
       <c r="S191" s="26"/>
       <c r="T191" s="23"/>
     </row>
-    <row r="192" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="20"/>
       <c r="B192" s="20"/>
       <c r="C192" s="20"/>
@@ -6295,7 +6317,7 @@
       <c r="S192" s="26"/>
       <c r="T192" s="23"/>
     </row>
-    <row r="193" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="20"/>
       <c r="B193" s="20"/>
       <c r="C193" s="20"/>
@@ -6317,7 +6339,7 @@
       <c r="S193" s="26"/>
       <c r="T193" s="23"/>
     </row>
-    <row r="194" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="20"/>
       <c r="B194" s="20"/>
       <c r="C194" s="20"/>
@@ -6339,7 +6361,7 @@
       <c r="S194" s="26"/>
       <c r="T194" s="23"/>
     </row>
-    <row r="195" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="20"/>
       <c r="B195" s="20"/>
       <c r="C195" s="20"/>
@@ -6361,7 +6383,7 @@
       <c r="S195" s="26"/>
       <c r="T195" s="23"/>
     </row>
-    <row r="196" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="20"/>
       <c r="B196" s="20"/>
       <c r="C196" s="20"/>
@@ -6383,7 +6405,7 @@
       <c r="S196" s="26"/>
       <c r="T196" s="23"/>
     </row>
-    <row r="197" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="20"/>
       <c r="B197" s="20"/>
       <c r="C197" s="20"/>
@@ -6405,7 +6427,7 @@
       <c r="S197" s="26"/>
       <c r="T197" s="23"/>
     </row>
-    <row r="198" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="20"/>
       <c r="B198" s="20"/>
       <c r="C198" s="20"/>
@@ -6427,7 +6449,7 @@
       <c r="S198" s="26"/>
       <c r="T198" s="23"/>
     </row>
-    <row r="199" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="20"/>
       <c r="B199" s="20"/>
       <c r="C199" s="20"/>
@@ -6449,7 +6471,7 @@
       <c r="S199" s="26"/>
       <c r="T199" s="23"/>
     </row>
-    <row r="200" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="20"/>
       <c r="B200" s="20"/>
       <c r="C200" s="20"/>
@@ -6471,7 +6493,7 @@
       <c r="S200" s="26"/>
       <c r="T200" s="23"/>
     </row>
-    <row r="201" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="20"/>
       <c r="B201" s="20"/>
       <c r="C201" s="20"/>
@@ -6493,7 +6515,7 @@
       <c r="S201" s="26"/>
       <c r="T201" s="23"/>
     </row>
-    <row r="202" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="20"/>
       <c r="B202" s="20"/>
       <c r="C202" s="20"/>
@@ -6515,7 +6537,7 @@
       <c r="S202" s="26"/>
       <c r="T202" s="23"/>
     </row>
-    <row r="203" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="20"/>
       <c r="B203" s="20"/>
       <c r="C203" s="20"/>
@@ -6537,7 +6559,7 @@
       <c r="S203" s="26"/>
       <c r="T203" s="23"/>
     </row>
-    <row r="204" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="20"/>
       <c r="B204" s="20"/>
       <c r="C204" s="20"/>
@@ -6559,7 +6581,7 @@
       <c r="S204" s="26"/>
       <c r="T204" s="23"/>
     </row>
-    <row r="205" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="20"/>
       <c r="B205" s="20"/>
       <c r="C205" s="20"/>
@@ -6581,7 +6603,7 @@
       <c r="S205" s="26"/>
       <c r="T205" s="23"/>
     </row>
-    <row r="206" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="20"/>
       <c r="B206" s="20"/>
       <c r="C206" s="20"/>
@@ -6603,7 +6625,7 @@
       <c r="S206" s="26"/>
       <c r="T206" s="23"/>
     </row>
-    <row r="207" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="20"/>
       <c r="B207" s="20"/>
       <c r="C207" s="20"/>
@@ -6625,7 +6647,7 @@
       <c r="S207" s="26"/>
       <c r="T207" s="23"/>
     </row>
-    <row r="208" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="20"/>
       <c r="B208" s="20"/>
       <c r="C208" s="20"/>
@@ -6647,7 +6669,7 @@
       <c r="S208" s="26"/>
       <c r="T208" s="23"/>
     </row>
-    <row r="209" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="20"/>
       <c r="B209" s="20"/>
       <c r="C209" s="20"/>
@@ -6669,7 +6691,7 @@
       <c r="S209" s="26"/>
       <c r="T209" s="23"/>
     </row>
-    <row r="210" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="20"/>
       <c r="B210" s="20"/>
       <c r="C210" s="20"/>
@@ -6691,7 +6713,7 @@
       <c r="S210" s="26"/>
       <c r="T210" s="23"/>
     </row>
-    <row r="211" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="20"/>
       <c r="B211" s="20"/>
       <c r="C211" s="20"/>
@@ -6713,7 +6735,7 @@
       <c r="S211" s="26"/>
       <c r="T211" s="23"/>
     </row>
-    <row r="212" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="20"/>
       <c r="B212" s="20"/>
       <c r="C212" s="20"/>
@@ -6735,7 +6757,7 @@
       <c r="S212" s="26"/>
       <c r="T212" s="23"/>
     </row>
-    <row r="213" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="20"/>
       <c r="B213" s="20"/>
       <c r="C213" s="20"/>
@@ -6757,7 +6779,7 @@
       <c r="S213" s="26"/>
       <c r="T213" s="23"/>
     </row>
-    <row r="214" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="20"/>
       <c r="B214" s="20"/>
       <c r="C214" s="20"/>
@@ -6779,7 +6801,7 @@
       <c r="S214" s="26"/>
       <c r="T214" s="23"/>
     </row>
-    <row r="215" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="20"/>
       <c r="B215" s="20"/>
       <c r="C215" s="20"/>
@@ -6801,7 +6823,7 @@
       <c r="S215" s="26"/>
       <c r="T215" s="23"/>
     </row>
-    <row r="216" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="20"/>
       <c r="B216" s="20"/>
       <c r="C216" s="20"/>
@@ -6823,7 +6845,7 @@
       <c r="S216" s="26"/>
       <c r="T216" s="23"/>
     </row>
-    <row r="217" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="20"/>
       <c r="B217" s="20"/>
       <c r="C217" s="20"/>
@@ -6845,7 +6867,7 @@
       <c r="S217" s="26"/>
       <c r="T217" s="23"/>
     </row>
-    <row r="218" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="20"/>
       <c r="B218" s="20"/>
       <c r="C218" s="20"/>
@@ -6867,7 +6889,7 @@
       <c r="S218" s="26"/>
       <c r="T218" s="23"/>
     </row>
-    <row r="219" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="20"/>
       <c r="B219" s="20"/>
       <c r="C219" s="20"/>
@@ -6889,7 +6911,7 @@
       <c r="S219" s="26"/>
       <c r="T219" s="23"/>
     </row>
-    <row r="220" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="20"/>
       <c r="B220" s="20"/>
       <c r="C220" s="20"/>
@@ -6911,7 +6933,7 @@
       <c r="S220" s="26"/>
       <c r="T220" s="23"/>
     </row>
-    <row r="221" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="20"/>
       <c r="B221" s="20"/>
       <c r="C221" s="20"/>
@@ -6933,7 +6955,7 @@
       <c r="S221" s="26"/>
       <c r="T221" s="23"/>
     </row>
-    <row r="222" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="20"/>
       <c r="B222" s="20"/>
       <c r="C222" s="20"/>
@@ -6955,7 +6977,7 @@
       <c r="S222" s="26"/>
       <c r="T222" s="23"/>
     </row>
-    <row r="223" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="20"/>
       <c r="B223" s="20"/>
       <c r="C223" s="20"/>
@@ -6977,7 +6999,7 @@
       <c r="S223" s="26"/>
       <c r="T223" s="23"/>
     </row>
-    <row r="224" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="20"/>
       <c r="B224" s="20"/>
       <c r="C224" s="20"/>
@@ -6999,7 +7021,7 @@
       <c r="S224" s="26"/>
       <c r="T224" s="23"/>
     </row>
-    <row r="225" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="20"/>
       <c r="B225" s="20"/>
       <c r="C225" s="20"/>
@@ -7021,7 +7043,7 @@
       <c r="S225" s="26"/>
       <c r="T225" s="23"/>
     </row>
-    <row r="226" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="20"/>
       <c r="B226" s="20"/>
       <c r="C226" s="20"/>
@@ -7043,7 +7065,7 @@
       <c r="S226" s="26"/>
       <c r="T226" s="23"/>
     </row>
-    <row r="227" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="20"/>
       <c r="B227" s="20"/>
       <c r="C227" s="20"/>
@@ -7065,7 +7087,7 @@
       <c r="S227" s="26"/>
       <c r="T227" s="23"/>
     </row>
-    <row r="228" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="20"/>
       <c r="B228" s="20"/>
       <c r="C228" s="20"/>
@@ -7087,7 +7109,7 @@
       <c r="S228" s="26"/>
       <c r="T228" s="23"/>
     </row>
-    <row r="229" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="20"/>
       <c r="B229" s="20"/>
       <c r="C229" s="20"/>
@@ -7109,7 +7131,7 @@
       <c r="S229" s="26"/>
       <c r="T229" s="23"/>
     </row>
-    <row r="230" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="20"/>
       <c r="B230" s="20"/>
       <c r="C230" s="20"/>
@@ -7131,7 +7153,7 @@
       <c r="S230" s="26"/>
       <c r="T230" s="23"/>
     </row>
-    <row r="231" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="20"/>
       <c r="B231" s="20"/>
       <c r="C231" s="20"/>
@@ -7153,7 +7175,7 @@
       <c r="S231" s="26"/>
       <c r="T231" s="23"/>
     </row>
-    <row r="232" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="20"/>
       <c r="B232" s="20"/>
       <c r="C232" s="20"/>
@@ -7175,7 +7197,7 @@
       <c r="S232" s="26"/>
       <c r="T232" s="23"/>
     </row>
-    <row r="233" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="20"/>
       <c r="B233" s="20"/>
       <c r="C233" s="20"/>
@@ -7197,7 +7219,7 @@
       <c r="S233" s="26"/>
       <c r="T233" s="23"/>
     </row>
-    <row r="234" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="20"/>
       <c r="B234" s="20"/>
       <c r="C234" s="20"/>
@@ -7219,7 +7241,7 @@
       <c r="S234" s="26"/>
       <c r="T234" s="23"/>
     </row>
-    <row r="235" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="20"/>
       <c r="B235" s="20"/>
       <c r="C235" s="20"/>
@@ -7241,7 +7263,7 @@
       <c r="S235" s="26"/>
       <c r="T235" s="23"/>
     </row>
-    <row r="236" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="20"/>
       <c r="B236" s="20"/>
       <c r="C236" s="20"/>
@@ -7263,7 +7285,7 @@
       <c r="S236" s="26"/>
       <c r="T236" s="23"/>
     </row>
-    <row r="237" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="20"/>
       <c r="B237" s="20"/>
       <c r="C237" s="20"/>
@@ -7285,7 +7307,7 @@
       <c r="S237" s="26"/>
       <c r="T237" s="23"/>
     </row>
-    <row r="238" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="20"/>
       <c r="B238" s="20"/>
       <c r="C238" s="20"/>
@@ -7307,7 +7329,7 @@
       <c r="S238" s="26"/>
       <c r="T238" s="23"/>
     </row>
-    <row r="239" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="20"/>
       <c r="B239" s="20"/>
       <c r="C239" s="20"/>
@@ -7329,7 +7351,7 @@
       <c r="S239" s="26"/>
       <c r="T239" s="23"/>
     </row>
-    <row r="240" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="20"/>
       <c r="B240" s="20"/>
       <c r="C240" s="20"/>
@@ -7351,7 +7373,7 @@
       <c r="S240" s="26"/>
       <c r="T240" s="23"/>
     </row>
-    <row r="241" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="20"/>
       <c r="B241" s="20"/>
       <c r="C241" s="20"/>
@@ -7373,7 +7395,7 @@
       <c r="S241" s="26"/>
       <c r="T241" s="23"/>
     </row>
-    <row r="242" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="20"/>
       <c r="B242" s="20"/>
       <c r="C242" s="20"/>
@@ -7395,7 +7417,7 @@
       <c r="S242" s="26"/>
       <c r="T242" s="23"/>
     </row>
-    <row r="243" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="20"/>
       <c r="B243" s="20"/>
       <c r="C243" s="20"/>
@@ -7417,7 +7439,7 @@
       <c r="S243" s="26"/>
       <c r="T243" s="23"/>
     </row>
-    <row r="244" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="20"/>
       <c r="B244" s="20"/>
       <c r="C244" s="20"/>
@@ -7439,7 +7461,7 @@
       <c r="S244" s="26"/>
       <c r="T244" s="23"/>
     </row>
-    <row r="245" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="20"/>
       <c r="B245" s="20"/>
       <c r="C245" s="20"/>
@@ -7461,7 +7483,7 @@
       <c r="S245" s="26"/>
       <c r="T245" s="23"/>
     </row>
-    <row r="246" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="20"/>
       <c r="B246" s="20"/>
       <c r="C246" s="20"/>
@@ -7483,7 +7505,7 @@
       <c r="S246" s="26"/>
       <c r="T246" s="23"/>
     </row>
-    <row r="247" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="20"/>
       <c r="B247" s="20"/>
       <c r="C247" s="20"/>
@@ -7505,7 +7527,7 @@
       <c r="S247" s="26"/>
       <c r="T247" s="23"/>
     </row>
-    <row r="248" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="20"/>
       <c r="B248" s="20"/>
       <c r="C248" s="20"/>
@@ -7527,7 +7549,7 @@
       <c r="S248" s="26"/>
       <c r="T248" s="23"/>
     </row>
-    <row r="249" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="20"/>
       <c r="B249" s="20"/>
       <c r="C249" s="20"/>
@@ -7549,7 +7571,7 @@
       <c r="S249" s="26"/>
       <c r="T249" s="23"/>
     </row>
-    <row r="250" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="20"/>
       <c r="B250" s="20"/>
       <c r="C250" s="20"/>
@@ -7571,7 +7593,7 @@
       <c r="S250" s="26"/>
       <c r="T250" s="23"/>
     </row>
-    <row r="251" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="20"/>
       <c r="B251" s="20"/>
       <c r="C251" s="20"/>
@@ -7593,7 +7615,7 @@
       <c r="S251" s="26"/>
       <c r="T251" s="23"/>
     </row>
-    <row r="252" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="20"/>
       <c r="B252" s="20"/>
       <c r="C252" s="20"/>
@@ -7615,7 +7637,7 @@
       <c r="S252" s="26"/>
       <c r="T252" s="23"/>
     </row>
-    <row r="253" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="20"/>
       <c r="B253" s="20"/>
       <c r="C253" s="20"/>
@@ -7637,7 +7659,7 @@
       <c r="S253" s="26"/>
       <c r="T253" s="23"/>
     </row>
-    <row r="254" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="20"/>
       <c r="B254" s="20"/>
       <c r="C254" s="20"/>
@@ -7659,7 +7681,7 @@
       <c r="S254" s="26"/>
       <c r="T254" s="23"/>
     </row>
-    <row r="255" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="20"/>
       <c r="B255" s="20"/>
       <c r="C255" s="20"/>
@@ -7681,7 +7703,7 @@
       <c r="S255" s="26"/>
       <c r="T255" s="23"/>
     </row>
-    <row r="256" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="20"/>
       <c r="B256" s="20"/>
       <c r="C256" s="20"/>
@@ -7703,7 +7725,7 @@
       <c r="S256" s="26"/>
       <c r="T256" s="23"/>
     </row>
-    <row r="257" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="20"/>
       <c r="B257" s="20"/>
       <c r="C257" s="20"/>
@@ -7725,7 +7747,7 @@
       <c r="S257" s="26"/>
       <c r="T257" s="23"/>
     </row>
-    <row r="258" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="20"/>
       <c r="B258" s="20"/>
       <c r="C258" s="20"/>
@@ -7747,7 +7769,7 @@
       <c r="S258" s="26"/>
       <c r="T258" s="23"/>
     </row>
-    <row r="259" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="20"/>
       <c r="B259" s="20"/>
       <c r="C259" s="20"/>
@@ -7769,7 +7791,7 @@
       <c r="S259" s="26"/>
       <c r="T259" s="23"/>
     </row>
-    <row r="260" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="20"/>
       <c r="B260" s="20"/>
       <c r="C260" s="20"/>
@@ -7791,7 +7813,7 @@
       <c r="S260" s="26"/>
       <c r="T260" s="23"/>
     </row>
-    <row r="261" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="20"/>
       <c r="B261" s="20"/>
       <c r="C261" s="20"/>
@@ -7813,7 +7835,7 @@
       <c r="S261" s="26"/>
       <c r="T261" s="23"/>
     </row>
-    <row r="262" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="20"/>
       <c r="B262" s="20"/>
       <c r="C262" s="20"/>
@@ -7835,7 +7857,7 @@
       <c r="S262" s="26"/>
       <c r="T262" s="23"/>
     </row>
-    <row r="263" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="20"/>
       <c r="B263" s="20"/>
       <c r="C263" s="20"/>
@@ -7857,7 +7879,7 @@
       <c r="S263" s="26"/>
       <c r="T263" s="23"/>
     </row>
-    <row r="264" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="20"/>
       <c r="B264" s="20"/>
       <c r="C264" s="20"/>
@@ -7879,7 +7901,7 @@
       <c r="S264" s="26"/>
       <c r="T264" s="23"/>
     </row>
-    <row r="265" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="20"/>
       <c r="B265" s="20"/>
       <c r="C265" s="20"/>
@@ -7901,7 +7923,7 @@
       <c r="S265" s="26"/>
       <c r="T265" s="23"/>
     </row>
-    <row r="266" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="20"/>
       <c r="B266" s="20"/>
       <c r="C266" s="20"/>
@@ -7923,7 +7945,7 @@
       <c r="S266" s="26"/>
       <c r="T266" s="23"/>
     </row>
-    <row r="267" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="20"/>
       <c r="B267" s="20"/>
       <c r="C267" s="20"/>
@@ -7945,7 +7967,7 @@
       <c r="S267" s="26"/>
       <c r="T267" s="23"/>
     </row>
-    <row r="268" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="20"/>
       <c r="B268" s="20"/>
       <c r="C268" s="20"/>
@@ -7967,7 +7989,7 @@
       <c r="S268" s="26"/>
       <c r="T268" s="23"/>
     </row>
-    <row r="269" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="20"/>
       <c r="B269" s="20"/>
       <c r="C269" s="20"/>
@@ -7989,7 +8011,7 @@
       <c r="S269" s="26"/>
       <c r="T269" s="23"/>
     </row>
-    <row r="270" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="20"/>
       <c r="B270" s="20"/>
       <c r="C270" s="20"/>
@@ -8011,7 +8033,7 @@
       <c r="S270" s="26"/>
       <c r="T270" s="23"/>
     </row>
-    <row r="271" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="20"/>
       <c r="B271" s="20"/>
       <c r="C271" s="20"/>
@@ -8033,7 +8055,7 @@
       <c r="S271" s="26"/>
       <c r="T271" s="23"/>
     </row>
-    <row r="272" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="20"/>
       <c r="B272" s="20"/>
       <c r="C272" s="20"/>
@@ -8055,7 +8077,7 @@
       <c r="S272" s="26"/>
       <c r="T272" s="23"/>
     </row>
-    <row r="273" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="20"/>
       <c r="B273" s="20"/>
       <c r="C273" s="20"/>
@@ -8077,7 +8099,7 @@
       <c r="S273" s="26"/>
       <c r="T273" s="23"/>
     </row>
-    <row r="274" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="20"/>
       <c r="B274" s="20"/>
       <c r="C274" s="20"/>
@@ -8099,7 +8121,7 @@
       <c r="S274" s="26"/>
       <c r="T274" s="23"/>
     </row>
-    <row r="275" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="20"/>
       <c r="B275" s="20"/>
       <c r="C275" s="20"/>
@@ -8121,7 +8143,7 @@
       <c r="S275" s="26"/>
       <c r="T275" s="23"/>
     </row>
-    <row r="276" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="20"/>
       <c r="B276" s="20"/>
       <c r="C276" s="20"/>
@@ -8143,7 +8165,7 @@
       <c r="S276" s="26"/>
       <c r="T276" s="23"/>
     </row>
-    <row r="277" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="20"/>
       <c r="B277" s="20"/>
       <c r="C277" s="20"/>
@@ -8165,7 +8187,7 @@
       <c r="S277" s="26"/>
       <c r="T277" s="23"/>
     </row>
-    <row r="278" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="20"/>
       <c r="B278" s="20"/>
       <c r="C278" s="20"/>
@@ -8187,7 +8209,7 @@
       <c r="S278" s="26"/>
       <c r="T278" s="23"/>
     </row>
-    <row r="279" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="20"/>
       <c r="B279" s="20"/>
       <c r="C279" s="20"/>
@@ -8209,7 +8231,7 @@
       <c r="S279" s="26"/>
       <c r="T279" s="23"/>
     </row>
-    <row r="280" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="20"/>
       <c r="B280" s="20"/>
       <c r="C280" s="20"/>
@@ -8231,7 +8253,7 @@
       <c r="S280" s="26"/>
       <c r="T280" s="23"/>
     </row>
-    <row r="281" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="20"/>
       <c r="B281" s="20"/>
       <c r="C281" s="20"/>
@@ -8253,7 +8275,7 @@
       <c r="S281" s="26"/>
       <c r="T281" s="23"/>
     </row>
-    <row r="282" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="20"/>
       <c r="B282" s="20"/>
       <c r="C282" s="20"/>
@@ -8275,7 +8297,7 @@
       <c r="S282" s="26"/>
       <c r="T282" s="23"/>
     </row>
-    <row r="283" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="20"/>
       <c r="B283" s="20"/>
       <c r="C283" s="20"/>
@@ -8297,7 +8319,7 @@
       <c r="S283" s="26"/>
       <c r="T283" s="23"/>
     </row>
-    <row r="284" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="20"/>
       <c r="B284" s="20"/>
       <c r="C284" s="20"/>
@@ -8319,7 +8341,7 @@
       <c r="S284" s="26"/>
       <c r="T284" s="23"/>
     </row>
-    <row r="285" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="20"/>
       <c r="B285" s="20"/>
       <c r="C285" s="20"/>
@@ -8341,7 +8363,7 @@
       <c r="S285" s="26"/>
       <c r="T285" s="23"/>
     </row>
-    <row r="286" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="20"/>
       <c r="B286" s="20"/>
       <c r="C286" s="20"/>
@@ -8363,7 +8385,7 @@
       <c r="S286" s="26"/>
       <c r="T286" s="23"/>
     </row>
-    <row r="287" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="20"/>
       <c r="B287" s="20"/>
       <c r="C287" s="20"/>
@@ -8385,7 +8407,7 @@
       <c r="S287" s="26"/>
       <c r="T287" s="23"/>
     </row>
-    <row r="288" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="20"/>
       <c r="B288" s="20"/>
       <c r="C288" s="20"/>
@@ -8407,7 +8429,7 @@
       <c r="S288" s="26"/>
       <c r="T288" s="23"/>
     </row>
-    <row r="289" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="20"/>
       <c r="B289" s="20"/>
       <c r="C289" s="20"/>
@@ -8429,7 +8451,7 @@
       <c r="S289" s="26"/>
       <c r="T289" s="23"/>
     </row>
-    <row r="290" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="20"/>
       <c r="B290" s="20"/>
       <c r="C290" s="20"/>
@@ -8451,7 +8473,7 @@
       <c r="S290" s="26"/>
       <c r="T290" s="23"/>
     </row>
-    <row r="291" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="20"/>
       <c r="B291" s="20"/>
       <c r="C291" s="20"/>
@@ -8473,7 +8495,7 @@
       <c r="S291" s="26"/>
       <c r="T291" s="23"/>
     </row>
-    <row r="292" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="20"/>
       <c r="B292" s="20"/>
       <c r="C292" s="20"/>
@@ -8495,7 +8517,7 @@
       <c r="S292" s="26"/>
       <c r="T292" s="23"/>
     </row>
-    <row r="293" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="20"/>
       <c r="B293" s="20"/>
       <c r="C293" s="20"/>
@@ -8517,7 +8539,7 @@
       <c r="S293" s="26"/>
       <c r="T293" s="23"/>
     </row>
-    <row r="294" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="20"/>
       <c r="B294" s="20"/>
       <c r="C294" s="20"/>
@@ -8539,7 +8561,7 @@
       <c r="S294" s="26"/>
       <c r="T294" s="23"/>
     </row>
-    <row r="295" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="20"/>
       <c r="B295" s="20"/>
       <c r="C295" s="20"/>
@@ -8561,7 +8583,7 @@
       <c r="S295" s="26"/>
       <c r="T295" s="23"/>
     </row>
-    <row r="296" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="20"/>
       <c r="B296" s="20"/>
       <c r="C296" s="20"/>
@@ -8583,7 +8605,7 @@
       <c r="S296" s="26"/>
       <c r="T296" s="23"/>
     </row>
-    <row r="297" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="20"/>
       <c r="B297" s="20"/>
       <c r="C297" s="20"/>
@@ -8605,7 +8627,7 @@
       <c r="S297" s="26"/>
       <c r="T297" s="23"/>
     </row>
-    <row r="298" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="20"/>
       <c r="B298" s="20"/>
       <c r="C298" s="20"/>
@@ -8627,7 +8649,7 @@
       <c r="S298" s="26"/>
       <c r="T298" s="23"/>
     </row>
-    <row r="299" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="20"/>
       <c r="B299" s="20"/>
       <c r="C299" s="20"/>
@@ -8649,7 +8671,7 @@
       <c r="S299" s="26"/>
       <c r="T299" s="23"/>
     </row>
-    <row r="300" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="20"/>
       <c r="B300" s="20"/>
       <c r="C300" s="20"/>
@@ -8671,7 +8693,7 @@
       <c r="S300" s="26"/>
       <c r="T300" s="23"/>
     </row>
-    <row r="301" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="20"/>
       <c r="B301" s="20"/>
       <c r="C301" s="20"/>
@@ -8693,7 +8715,7 @@
       <c r="S301" s="26"/>
       <c r="T301" s="23"/>
     </row>
-    <row r="302" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="20"/>
       <c r="B302" s="20"/>
       <c r="C302" s="20"/>
@@ -8715,7 +8737,7 @@
       <c r="S302" s="26"/>
       <c r="T302" s="23"/>
     </row>
-    <row r="303" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="20"/>
       <c r="B303" s="20"/>
       <c r="C303" s="20"/>
@@ -8737,7 +8759,7 @@
       <c r="S303" s="26"/>
       <c r="T303" s="23"/>
     </row>
-    <row r="304" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="20"/>
       <c r="B304" s="20"/>
       <c r="C304" s="20"/>
@@ -8759,7 +8781,7 @@
       <c r="S304" s="26"/>
       <c r="T304" s="23"/>
     </row>
-    <row r="305" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="20"/>
       <c r="B305" s="20"/>
       <c r="C305" s="20"/>
@@ -8781,7 +8803,7 @@
       <c r="S305" s="26"/>
       <c r="T305" s="23"/>
     </row>
-    <row r="306" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="20"/>
       <c r="B306" s="20"/>
       <c r="C306" s="20"/>
@@ -8803,7 +8825,7 @@
       <c r="S306" s="26"/>
       <c r="T306" s="23"/>
     </row>
-    <row r="307" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="20"/>
       <c r="B307" s="20"/>
       <c r="C307" s="20"/>
@@ -8825,7 +8847,7 @@
       <c r="S307" s="26"/>
       <c r="T307" s="23"/>
     </row>
-    <row r="308" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="20"/>
       <c r="B308" s="20"/>
       <c r="C308" s="20"/>
@@ -8847,7 +8869,7 @@
       <c r="S308" s="26"/>
       <c r="T308" s="23"/>
     </row>
-    <row r="309" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="20"/>
       <c r="B309" s="20"/>
       <c r="C309" s="20"/>
@@ -8869,7 +8891,7 @@
       <c r="S309" s="26"/>
       <c r="T309" s="23"/>
     </row>
-    <row r="310" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="20"/>
       <c r="B310" s="20"/>
       <c r="C310" s="20"/>
@@ -8891,7 +8913,7 @@
       <c r="S310" s="26"/>
       <c r="T310" s="23"/>
     </row>
-    <row r="311" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="20"/>
       <c r="B311" s="20"/>
       <c r="C311" s="20"/>
@@ -8913,7 +8935,7 @@
       <c r="S311" s="26"/>
       <c r="T311" s="23"/>
     </row>
-    <row r="312" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="20"/>
       <c r="B312" s="20"/>
       <c r="C312" s="20"/>
@@ -8935,7 +8957,7 @@
       <c r="S312" s="26"/>
       <c r="T312" s="23"/>
     </row>
-    <row r="313" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="20"/>
       <c r="B313" s="20"/>
       <c r="C313" s="20"/>
@@ -8957,7 +8979,7 @@
       <c r="S313" s="26"/>
       <c r="T313" s="23"/>
     </row>
-    <row r="314" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="20"/>
       <c r="B314" s="20"/>
       <c r="C314" s="20"/>
@@ -8979,7 +9001,7 @@
       <c r="S314" s="26"/>
       <c r="T314" s="23"/>
     </row>
-    <row r="315" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="20"/>
       <c r="B315" s="20"/>
       <c r="C315" s="20"/>
@@ -9001,7 +9023,7 @@
       <c r="S315" s="26"/>
       <c r="T315" s="23"/>
     </row>
-    <row r="316" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="20"/>
       <c r="B316" s="20"/>
       <c r="C316" s="20"/>
@@ -9023,7 +9045,7 @@
       <c r="S316" s="26"/>
       <c r="T316" s="23"/>
     </row>
-    <row r="317" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="20"/>
       <c r="B317" s="20"/>
       <c r="C317" s="20"/>
@@ -9045,7 +9067,7 @@
       <c r="S317" s="26"/>
       <c r="T317" s="23"/>
     </row>
-    <row r="318" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="20"/>
       <c r="B318" s="20"/>
       <c r="C318" s="20"/>
@@ -9067,7 +9089,7 @@
       <c r="S318" s="26"/>
       <c r="T318" s="23"/>
     </row>
-    <row r="319" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="20"/>
       <c r="B319" s="20"/>
       <c r="C319" s="20"/>
@@ -9089,7 +9111,7 @@
       <c r="S319" s="26"/>
       <c r="T319" s="23"/>
     </row>
-    <row r="320" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="20"/>
       <c r="B320" s="20"/>
       <c r="C320" s="20"/>
@@ -9111,7 +9133,7 @@
       <c r="S320" s="26"/>
       <c r="T320" s="23"/>
     </row>
-    <row r="321" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="20"/>
       <c r="B321" s="20"/>
       <c r="C321" s="20"/>
@@ -9133,7 +9155,7 @@
       <c r="S321" s="26"/>
       <c r="T321" s="23"/>
     </row>
-    <row r="322" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="20"/>
       <c r="B322" s="20"/>
       <c r="C322" s="20"/>
@@ -9155,7 +9177,7 @@
       <c r="S322" s="26"/>
       <c r="T322" s="23"/>
     </row>
-    <row r="323" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="20"/>
       <c r="B323" s="20"/>
       <c r="C323" s="20"/>
@@ -9177,7 +9199,7 @@
       <c r="S323" s="26"/>
       <c r="T323" s="23"/>
     </row>
-    <row r="324" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="20"/>
       <c r="B324" s="20"/>
       <c r="C324" s="20"/>
@@ -9199,7 +9221,7 @@
       <c r="S324" s="26"/>
       <c r="T324" s="23"/>
     </row>
-    <row r="325" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="20"/>
       <c r="B325" s="20"/>
       <c r="C325" s="20"/>
@@ -9221,7 +9243,7 @@
       <c r="S325" s="26"/>
       <c r="T325" s="23"/>
     </row>
-    <row r="326" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="20"/>
       <c r="B326" s="20"/>
       <c r="C326" s="20"/>
@@ -9243,7 +9265,7 @@
       <c r="S326" s="26"/>
       <c r="T326" s="23"/>
     </row>
-    <row r="327" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="20"/>
       <c r="B327" s="20"/>
       <c r="C327" s="20"/>
@@ -9265,7 +9287,7 @@
       <c r="S327" s="26"/>
       <c r="T327" s="23"/>
     </row>
-    <row r="328" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="20"/>
       <c r="B328" s="20"/>
       <c r="C328" s="20"/>
@@ -9287,7 +9309,7 @@
       <c r="S328" s="26"/>
       <c r="T328" s="23"/>
     </row>
-    <row r="329" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="20"/>
       <c r="B329" s="20"/>
       <c r="C329" s="20"/>
@@ -9309,7 +9331,7 @@
       <c r="S329" s="26"/>
       <c r="T329" s="23"/>
     </row>
-    <row r="330" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="20"/>
       <c r="B330" s="20"/>
       <c r="C330" s="20"/>
@@ -9331,7 +9353,7 @@
       <c r="S330" s="26"/>
       <c r="T330" s="23"/>
     </row>
-    <row r="331" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="20"/>
       <c r="B331" s="20"/>
       <c r="C331" s="20"/>
@@ -9353,7 +9375,7 @@
       <c r="S331" s="26"/>
       <c r="T331" s="23"/>
     </row>
-    <row r="332" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="20"/>
       <c r="B332" s="20"/>
       <c r="C332" s="20"/>
@@ -9375,7 +9397,7 @@
       <c r="S332" s="26"/>
       <c r="T332" s="23"/>
     </row>
-    <row r="333" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="20"/>
       <c r="B333" s="20"/>
       <c r="C333" s="20"/>
@@ -9397,7 +9419,7 @@
       <c r="S333" s="26"/>
       <c r="T333" s="23"/>
     </row>
-    <row r="334" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="20"/>
       <c r="B334" s="20"/>
       <c r="C334" s="20"/>
@@ -9419,7 +9441,7 @@
       <c r="S334" s="26"/>
       <c r="T334" s="23"/>
     </row>
-    <row r="335" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="20"/>
       <c r="B335" s="20"/>
       <c r="C335" s="20"/>
@@ -9441,7 +9463,7 @@
       <c r="S335" s="26"/>
       <c r="T335" s="23"/>
     </row>
-    <row r="336" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="20"/>
       <c r="B336" s="20"/>
       <c r="C336" s="20"/>
@@ -9463,7 +9485,7 @@
       <c r="S336" s="26"/>
       <c r="T336" s="23"/>
     </row>
-    <row r="337" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="20"/>
       <c r="B337" s="20"/>
       <c r="C337" s="20"/>
@@ -9485,7 +9507,7 @@
       <c r="S337" s="26"/>
       <c r="T337" s="23"/>
     </row>
-    <row r="338" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="20"/>
       <c r="B338" s="20"/>
       <c r="C338" s="20"/>
@@ -9507,7 +9529,7 @@
       <c r="S338" s="26"/>
       <c r="T338" s="23"/>
     </row>
-    <row r="339" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="20"/>
       <c r="B339" s="20"/>
       <c r="C339" s="20"/>
@@ -9529,7 +9551,7 @@
       <c r="S339" s="26"/>
       <c r="T339" s="23"/>
     </row>
-    <row r="340" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="20"/>
       <c r="B340" s="20"/>
       <c r="C340" s="20"/>
@@ -9551,7 +9573,7 @@
       <c r="S340" s="26"/>
       <c r="T340" s="23"/>
     </row>
-    <row r="341" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="20"/>
       <c r="B341" s="20"/>
       <c r="C341" s="20"/>
@@ -9573,7 +9595,7 @@
       <c r="S341" s="26"/>
       <c r="T341" s="23"/>
     </row>
-    <row r="342" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="20"/>
       <c r="B342" s="20"/>
       <c r="C342" s="20"/>
@@ -9595,7 +9617,7 @@
       <c r="S342" s="26"/>
       <c r="T342" s="23"/>
     </row>
-    <row r="343" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="20"/>
       <c r="B343" s="20"/>
       <c r="C343" s="20"/>
@@ -9617,7 +9639,7 @@
       <c r="S343" s="26"/>
       <c r="T343" s="23"/>
     </row>
-    <row r="344" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="20"/>
       <c r="B344" s="20"/>
       <c r="C344" s="20"/>
@@ -9639,7 +9661,7 @@
       <c r="S344" s="26"/>
       <c r="T344" s="23"/>
     </row>
-    <row r="345" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="20"/>
       <c r="B345" s="20"/>
       <c r="C345" s="20"/>
@@ -9661,7 +9683,7 @@
       <c r="S345" s="26"/>
       <c r="T345" s="23"/>
     </row>
-    <row r="346" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="20"/>
       <c r="B346" s="20"/>
       <c r="C346" s="20"/>
@@ -9683,7 +9705,7 @@
       <c r="S346" s="26"/>
       <c r="T346" s="23"/>
     </row>
-    <row r="347" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="20"/>
       <c r="B347" s="20"/>
       <c r="C347" s="20"/>
@@ -9705,7 +9727,7 @@
       <c r="S347" s="26"/>
       <c r="T347" s="23"/>
     </row>
-    <row r="348" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="20"/>
       <c r="B348" s="20"/>
       <c r="C348" s="20"/>
@@ -9727,7 +9749,7 @@
       <c r="S348" s="26"/>
       <c r="T348" s="23"/>
     </row>
-    <row r="349" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="20"/>
       <c r="B349" s="20"/>
       <c r="C349" s="20"/>
@@ -9749,7 +9771,7 @@
       <c r="S349" s="26"/>
       <c r="T349" s="23"/>
     </row>
-    <row r="350" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="20"/>
       <c r="B350" s="20"/>
       <c r="C350" s="20"/>
@@ -9771,7 +9793,7 @@
       <c r="S350" s="26"/>
       <c r="T350" s="23"/>
     </row>
-    <row r="351" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="20"/>
       <c r="B351" s="20"/>
       <c r="C351" s="20"/>
@@ -9793,7 +9815,7 @@
       <c r="S351" s="26"/>
       <c r="T351" s="23"/>
     </row>
-    <row r="352" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="20"/>
       <c r="B352" s="20"/>
       <c r="C352" s="20"/>
@@ -9815,7 +9837,7 @@
       <c r="S352" s="26"/>
       <c r="T352" s="23"/>
     </row>
-    <row r="353" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="20"/>
       <c r="B353" s="20"/>
       <c r="C353" s="20"/>
@@ -9837,7 +9859,7 @@
       <c r="S353" s="26"/>
       <c r="T353" s="23"/>
     </row>
-    <row r="354" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="20"/>
       <c r="B354" s="20"/>
       <c r="C354" s="20"/>
@@ -9859,7 +9881,7 @@
       <c r="S354" s="26"/>
       <c r="T354" s="23"/>
     </row>
-    <row r="355" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="20"/>
       <c r="B355" s="20"/>
       <c r="C355" s="20"/>
@@ -9881,7 +9903,7 @@
       <c r="S355" s="26"/>
       <c r="T355" s="23"/>
     </row>
-    <row r="356" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="20"/>
       <c r="B356" s="20"/>
       <c r="C356" s="20"/>
@@ -9903,7 +9925,7 @@
       <c r="S356" s="26"/>
       <c r="T356" s="23"/>
     </row>
-    <row r="357" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="20"/>
       <c r="B357" s="20"/>
       <c r="C357" s="20"/>
@@ -9925,7 +9947,7 @@
       <c r="S357" s="26"/>
       <c r="T357" s="23"/>
     </row>
-    <row r="358" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="20"/>
       <c r="B358" s="20"/>
       <c r="C358" s="20"/>
@@ -9947,7 +9969,7 @@
       <c r="S358" s="26"/>
       <c r="T358" s="23"/>
     </row>
-    <row r="359" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="20"/>
       <c r="B359" s="20"/>
       <c r="C359" s="20"/>
@@ -9969,7 +9991,7 @@
       <c r="S359" s="26"/>
       <c r="T359" s="23"/>
     </row>
-    <row r="360" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="20"/>
       <c r="B360" s="20"/>
       <c r="C360" s="20"/>
@@ -9991,7 +10013,7 @@
       <c r="S360" s="26"/>
       <c r="T360" s="23"/>
     </row>
-    <row r="361" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="20"/>
       <c r="B361" s="20"/>
       <c r="C361" s="20"/>
@@ -10013,7 +10035,7 @@
       <c r="S361" s="26"/>
       <c r="T361" s="23"/>
     </row>
-    <row r="362" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="20"/>
       <c r="B362" s="20"/>
       <c r="C362" s="20"/>
@@ -10035,7 +10057,7 @@
       <c r="S362" s="26"/>
       <c r="T362" s="23"/>
     </row>
-    <row r="363" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="20"/>
       <c r="B363" s="20"/>
       <c r="C363" s="20"/>
@@ -10057,7 +10079,7 @@
       <c r="S363" s="26"/>
       <c r="T363" s="23"/>
     </row>
-    <row r="364" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="20"/>
       <c r="B364" s="20"/>
       <c r="C364" s="20"/>
@@ -10079,7 +10101,7 @@
       <c r="S364" s="26"/>
       <c r="T364" s="23"/>
     </row>
-    <row r="365" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="20"/>
       <c r="B365" s="20"/>
       <c r="C365" s="20"/>
@@ -10101,7 +10123,7 @@
       <c r="S365" s="26"/>
       <c r="T365" s="23"/>
     </row>
-    <row r="366" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="20"/>
       <c r="B366" s="20"/>
       <c r="C366" s="20"/>
@@ -10123,7 +10145,7 @@
       <c r="S366" s="26"/>
       <c r="T366" s="23"/>
     </row>
-    <row r="367" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="20"/>
       <c r="B367" s="20"/>
       <c r="C367" s="20"/>
@@ -10145,7 +10167,7 @@
       <c r="S367" s="26"/>
       <c r="T367" s="23"/>
     </row>
-    <row r="368" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="20"/>
       <c r="B368" s="20"/>
       <c r="C368" s="20"/>
@@ -10167,7 +10189,7 @@
       <c r="S368" s="26"/>
       <c r="T368" s="23"/>
     </row>
-    <row r="369" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="20"/>
       <c r="B369" s="20"/>
       <c r="C369" s="20"/>
@@ -10189,7 +10211,7 @@
       <c r="S369" s="26"/>
       <c r="T369" s="23"/>
     </row>
-    <row r="370" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="20"/>
       <c r="B370" s="20"/>
       <c r="C370" s="20"/>
@@ -10211,7 +10233,7 @@
       <c r="S370" s="26"/>
       <c r="T370" s="23"/>
     </row>
-    <row r="371" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="20"/>
       <c r="B371" s="20"/>
       <c r="C371" s="20"/>
@@ -10233,7 +10255,7 @@
       <c r="S371" s="26"/>
       <c r="T371" s="23"/>
     </row>
-    <row r="372" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="20"/>
       <c r="B372" s="20"/>
       <c r="C372" s="20"/>
@@ -10255,7 +10277,7 @@
       <c r="S372" s="26"/>
       <c r="T372" s="23"/>
     </row>
-    <row r="373" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="20"/>
       <c r="B373" s="20"/>
       <c r="C373" s="20"/>
@@ -10277,7 +10299,7 @@
       <c r="S373" s="26"/>
       <c r="T373" s="23"/>
     </row>
-    <row r="374" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="20"/>
       <c r="B374" s="20"/>
       <c r="C374" s="20"/>
@@ -10299,7 +10321,7 @@
       <c r="S374" s="26"/>
       <c r="T374" s="23"/>
     </row>
-    <row r="375" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="20"/>
       <c r="B375" s="20"/>
       <c r="C375" s="20"/>
@@ -10321,7 +10343,7 @@
       <c r="S375" s="26"/>
       <c r="T375" s="23"/>
     </row>
-    <row r="376" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="20"/>
       <c r="B376" s="20"/>
       <c r="C376" s="20"/>
@@ -10343,7 +10365,7 @@
       <c r="S376" s="26"/>
       <c r="T376" s="23"/>
     </row>
-    <row r="377" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="20"/>
       <c r="B377" s="20"/>
       <c r="C377" s="20"/>
@@ -10365,7 +10387,7 @@
       <c r="S377" s="26"/>
       <c r="T377" s="23"/>
     </row>
-    <row r="378" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="20"/>
       <c r="B378" s="20"/>
       <c r="C378" s="20"/>
@@ -10387,7 +10409,7 @@
       <c r="S378" s="26"/>
       <c r="T378" s="23"/>
     </row>
-    <row r="379" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="20"/>
       <c r="B379" s="20"/>
       <c r="C379" s="20"/>
@@ -10409,7 +10431,7 @@
       <c r="S379" s="26"/>
       <c r="T379" s="23"/>
     </row>
-    <row r="380" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="20"/>
       <c r="B380" s="20"/>
       <c r="C380" s="20"/>
@@ -10431,7 +10453,7 @@
       <c r="S380" s="26"/>
       <c r="T380" s="23"/>
     </row>
-    <row r="381" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="20"/>
       <c r="B381" s="20"/>
       <c r="C381" s="20"/>
@@ -10453,7 +10475,7 @@
       <c r="S381" s="26"/>
       <c r="T381" s="23"/>
     </row>
-    <row r="382" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="20"/>
       <c r="B382" s="20"/>
       <c r="C382" s="20"/>
@@ -10475,7 +10497,7 @@
       <c r="S382" s="26"/>
       <c r="T382" s="23"/>
     </row>
-    <row r="383" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="20"/>
       <c r="B383" s="20"/>
       <c r="C383" s="20"/>
@@ -10497,7 +10519,7 @@
       <c r="S383" s="26"/>
       <c r="T383" s="23"/>
     </row>
-    <row r="384" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="20"/>
       <c r="B384" s="20"/>
       <c r="C384" s="20"/>
@@ -10519,7 +10541,7 @@
       <c r="S384" s="26"/>
       <c r="T384" s="23"/>
     </row>
-    <row r="385" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="20"/>
       <c r="B385" s="20"/>
       <c r="C385" s="20"/>
@@ -10541,7 +10563,7 @@
       <c r="S385" s="26"/>
       <c r="T385" s="23"/>
     </row>
-    <row r="386" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="20"/>
       <c r="B386" s="20"/>
       <c r="C386" s="20"/>
@@ -10563,7 +10585,7 @@
       <c r="S386" s="26"/>
       <c r="T386" s="23"/>
     </row>
-    <row r="387" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="20"/>
       <c r="B387" s="20"/>
       <c r="C387" s="20"/>
@@ -10585,7 +10607,7 @@
       <c r="S387" s="26"/>
       <c r="T387" s="23"/>
     </row>
-    <row r="388" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="20"/>
       <c r="B388" s="20"/>
       <c r="C388" s="20"/>
@@ -10607,7 +10629,7 @@
       <c r="S388" s="26"/>
       <c r="T388" s="23"/>
     </row>
-    <row r="389" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="20"/>
       <c r="B389" s="20"/>
       <c r="C389" s="20"/>
@@ -10629,7 +10651,7 @@
       <c r="S389" s="26"/>
       <c r="T389" s="23"/>
     </row>
-    <row r="390" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="20"/>
       <c r="B390" s="20"/>
       <c r="C390" s="20"/>
@@ -10651,7 +10673,7 @@
       <c r="S390" s="26"/>
       <c r="T390" s="23"/>
     </row>
-    <row r="391" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="20"/>
       <c r="B391" s="20"/>
       <c r="C391" s="20"/>
@@ -10673,7 +10695,7 @@
       <c r="S391" s="26"/>
       <c r="T391" s="23"/>
     </row>
-    <row r="392" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="20"/>
       <c r="B392" s="20"/>
       <c r="C392" s="20"/>
@@ -10695,7 +10717,7 @@
       <c r="S392" s="26"/>
       <c r="T392" s="23"/>
     </row>
-    <row r="393" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="20"/>
       <c r="B393" s="20"/>
       <c r="C393" s="20"/>
@@ -10717,7 +10739,7 @@
       <c r="S393" s="26"/>
       <c r="T393" s="23"/>
     </row>
-    <row r="394" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="20"/>
       <c r="B394" s="20"/>
       <c r="C394" s="20"/>
@@ -10739,7 +10761,7 @@
       <c r="S394" s="26"/>
       <c r="T394" s="23"/>
     </row>
-    <row r="395" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="20"/>
       <c r="B395" s="20"/>
       <c r="C395" s="20"/>
@@ -10761,7 +10783,7 @@
       <c r="S395" s="26"/>
       <c r="T395" s="23"/>
     </row>
-    <row r="396" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="20"/>
       <c r="B396" s="20"/>
       <c r="C396" s="20"/>
@@ -10783,7 +10805,7 @@
       <c r="S396" s="26"/>
       <c r="T396" s="23"/>
     </row>
-    <row r="397" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="20"/>
       <c r="B397" s="20"/>
       <c r="C397" s="20"/>
@@ -10805,7 +10827,7 @@
       <c r="S397" s="26"/>
       <c r="T397" s="23"/>
     </row>
-    <row r="398" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="20"/>
       <c r="B398" s="20"/>
       <c r="C398" s="20"/>
@@ -10827,7 +10849,7 @@
       <c r="S398" s="26"/>
       <c r="T398" s="23"/>
     </row>
-    <row r="399" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="20"/>
       <c r="B399" s="20"/>
       <c r="C399" s="20"/>
@@ -10849,7 +10871,7 @@
       <c r="S399" s="26"/>
       <c r="T399" s="23"/>
     </row>
-    <row r="400" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="20"/>
       <c r="B400" s="20"/>
       <c r="C400" s="20"/>
@@ -10871,7 +10893,7 @@
       <c r="S400" s="26"/>
       <c r="T400" s="23"/>
     </row>
-    <row r="401" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="20"/>
       <c r="B401" s="20"/>
       <c r="C401" s="20"/>
@@ -10893,7 +10915,7 @@
       <c r="S401" s="26"/>
       <c r="T401" s="23"/>
     </row>
-    <row r="402" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="20"/>
       <c r="B402" s="20"/>
       <c r="C402" s="20"/>
@@ -10915,7 +10937,7 @@
       <c r="S402" s="26"/>
       <c r="T402" s="23"/>
     </row>
-    <row r="403" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="20"/>
       <c r="B403" s="20"/>
       <c r="C403" s="20"/>
@@ -10937,7 +10959,7 @@
       <c r="S403" s="26"/>
       <c r="T403" s="23"/>
     </row>
-    <row r="404" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="20"/>
       <c r="B404" s="20"/>
       <c r="C404" s="20"/>
@@ -10959,7 +10981,7 @@
       <c r="S404" s="26"/>
       <c r="T404" s="23"/>
     </row>
-    <row r="405" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="20"/>
       <c r="B405" s="20"/>
       <c r="C405" s="20"/>
@@ -10981,7 +11003,7 @@
       <c r="S405" s="26"/>
       <c r="T405" s="23"/>
     </row>
-    <row r="406" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="20"/>
       <c r="B406" s="20"/>
       <c r="C406" s="20"/>
@@ -11003,7 +11025,7 @@
       <c r="S406" s="26"/>
       <c r="T406" s="23"/>
     </row>
-    <row r="407" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="20"/>
       <c r="B407" s="20"/>
       <c r="C407" s="20"/>
@@ -11025,7 +11047,7 @@
       <c r="S407" s="26"/>
       <c r="T407" s="23"/>
     </row>
-    <row r="408" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="20"/>
       <c r="B408" s="20"/>
       <c r="C408" s="20"/>
@@ -11047,7 +11069,7 @@
       <c r="S408" s="26"/>
       <c r="T408" s="23"/>
     </row>
-    <row r="409" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="20"/>
       <c r="B409" s="20"/>
       <c r="C409" s="20"/>
@@ -11069,7 +11091,7 @@
       <c r="S409" s="26"/>
       <c r="T409" s="23"/>
     </row>
-    <row r="410" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="20"/>
       <c r="B410" s="20"/>
       <c r="C410" s="20"/>
@@ -11091,7 +11113,7 @@
       <c r="S410" s="26"/>
       <c r="T410" s="23"/>
     </row>
-    <row r="411" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="20"/>
       <c r="B411" s="20"/>
       <c r="C411" s="20"/>
@@ -11113,7 +11135,7 @@
       <c r="S411" s="26"/>
       <c r="T411" s="23"/>
     </row>
-    <row r="412" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="20"/>
       <c r="B412" s="20"/>
       <c r="C412" s="20"/>
@@ -11135,7 +11157,7 @@
       <c r="S412" s="26"/>
       <c r="T412" s="23"/>
     </row>
-    <row r="413" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="20"/>
       <c r="B413" s="20"/>
       <c r="C413" s="20"/>
@@ -11157,7 +11179,7 @@
       <c r="S413" s="26"/>
       <c r="T413" s="23"/>
     </row>
-    <row r="414" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="20"/>
       <c r="B414" s="20"/>
       <c r="C414" s="20"/>
@@ -11179,7 +11201,7 @@
       <c r="S414" s="26"/>
       <c r="T414" s="23"/>
     </row>
-    <row r="415" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="20"/>
       <c r="B415" s="20"/>
       <c r="C415" s="20"/>
@@ -11201,7 +11223,7 @@
       <c r="S415" s="26"/>
       <c r="T415" s="23"/>
     </row>
-    <row r="416" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="20"/>
       <c r="B416" s="20"/>
       <c r="C416" s="20"/>
@@ -11223,7 +11245,7 @@
       <c r="S416" s="26"/>
       <c r="T416" s="23"/>
     </row>
-    <row r="417" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="20"/>
       <c r="B417" s="20"/>
       <c r="C417" s="20"/>
@@ -11245,7 +11267,7 @@
       <c r="S417" s="26"/>
       <c r="T417" s="23"/>
     </row>
-    <row r="418" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="20"/>
       <c r="B418" s="20"/>
       <c r="C418" s="20"/>
@@ -11267,7 +11289,7 @@
       <c r="S418" s="26"/>
       <c r="T418" s="23"/>
     </row>
-    <row r="419" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="20"/>
       <c r="B419" s="20"/>
       <c r="C419" s="20"/>
@@ -11289,7 +11311,7 @@
       <c r="S419" s="26"/>
       <c r="T419" s="23"/>
     </row>
-    <row r="420" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="20"/>
       <c r="B420" s="20"/>
       <c r="C420" s="20"/>
@@ -11311,7 +11333,7 @@
       <c r="S420" s="26"/>
       <c r="T420" s="23"/>
     </row>
-    <row r="421" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="20"/>
       <c r="B421" s="20"/>
       <c r="C421" s="20"/>
@@ -11333,7 +11355,7 @@
       <c r="S421" s="26"/>
       <c r="T421" s="23"/>
     </row>
-    <row r="422" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="20"/>
       <c r="B422" s="20"/>
       <c r="C422" s="20"/>
@@ -11355,7 +11377,7 @@
       <c r="S422" s="26"/>
       <c r="T422" s="23"/>
     </row>
-    <row r="423" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="20"/>
       <c r="B423" s="20"/>
       <c r="C423" s="20"/>
@@ -11377,7 +11399,7 @@
       <c r="S423" s="26"/>
       <c r="T423" s="23"/>
     </row>
-    <row r="424" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="20"/>
       <c r="B424" s="20"/>
       <c r="C424" s="20"/>
@@ -11399,7 +11421,7 @@
       <c r="S424" s="26"/>
       <c r="T424" s="23"/>
     </row>
-    <row r="425" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="20"/>
       <c r="B425" s="20"/>
       <c r="C425" s="20"/>
@@ -11421,7 +11443,7 @@
       <c r="S425" s="26"/>
       <c r="T425" s="23"/>
     </row>
-    <row r="426" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="20"/>
       <c r="B426" s="20"/>
       <c r="C426" s="20"/>
@@ -11443,7 +11465,7 @@
       <c r="S426" s="26"/>
       <c r="T426" s="23"/>
     </row>
-    <row r="427" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="20"/>
       <c r="B427" s="20"/>
       <c r="C427" s="20"/>
@@ -11465,7 +11487,7 @@
       <c r="S427" s="26"/>
       <c r="T427" s="23"/>
     </row>
-    <row r="428" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="20"/>
       <c r="B428" s="20"/>
       <c r="C428" s="20"/>
@@ -11487,7 +11509,7 @@
       <c r="S428" s="26"/>
       <c r="T428" s="23"/>
     </row>
-    <row r="429" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="20"/>
       <c r="B429" s="20"/>
       <c r="C429" s="20"/>
@@ -11509,7 +11531,7 @@
       <c r="S429" s="26"/>
       <c r="T429" s="23"/>
     </row>
-    <row r="430" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="20"/>
       <c r="B430" s="20"/>
       <c r="C430" s="20"/>
@@ -11531,7 +11553,7 @@
       <c r="S430" s="26"/>
       <c r="T430" s="23"/>
     </row>
-    <row r="431" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="20"/>
       <c r="B431" s="20"/>
       <c r="C431" s="20"/>
@@ -11553,7 +11575,7 @@
       <c r="S431" s="26"/>
       <c r="T431" s="23"/>
     </row>
-    <row r="432" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="20"/>
       <c r="B432" s="20"/>
       <c r="C432" s="20"/>
@@ -11575,7 +11597,7 @@
       <c r="S432" s="26"/>
       <c r="T432" s="23"/>
     </row>
-    <row r="433" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="20"/>
       <c r="B433" s="20"/>
       <c r="C433" s="20"/>
@@ -11597,7 +11619,7 @@
       <c r="S433" s="26"/>
       <c r="T433" s="23"/>
     </row>
-    <row r="434" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="20"/>
       <c r="B434" s="20"/>
       <c r="C434" s="20"/>
@@ -11619,7 +11641,7 @@
       <c r="S434" s="26"/>
       <c r="T434" s="23"/>
     </row>
-    <row r="435" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="20"/>
       <c r="B435" s="20"/>
       <c r="C435" s="20"/>
@@ -11641,7 +11663,7 @@
       <c r="S435" s="26"/>
       <c r="T435" s="23"/>
     </row>
-    <row r="436" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="20"/>
       <c r="B436" s="20"/>
       <c r="C436" s="20"/>
@@ -11663,7 +11685,7 @@
       <c r="S436" s="26"/>
       <c r="T436" s="23"/>
     </row>
-    <row r="437" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="20"/>
       <c r="B437" s="20"/>
       <c r="C437" s="20"/>
@@ -11685,7 +11707,7 @@
       <c r="S437" s="26"/>
       <c r="T437" s="23"/>
     </row>
-    <row r="438" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="20"/>
       <c r="B438" s="20"/>
       <c r="C438" s="20"/>
@@ -11707,7 +11729,7 @@
       <c r="S438" s="26"/>
       <c r="T438" s="23"/>
     </row>
-    <row r="439" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="20"/>
       <c r="B439" s="20"/>
       <c r="C439" s="20"/>
@@ -11729,7 +11751,7 @@
       <c r="S439" s="26"/>
       <c r="T439" s="23"/>
     </row>
-    <row r="440" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="20"/>
       <c r="B440" s="20"/>
       <c r="C440" s="20"/>
@@ -11751,7 +11773,7 @@
       <c r="S440" s="26"/>
       <c r="T440" s="23"/>
     </row>
-    <row r="441" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="20"/>
       <c r="B441" s="20"/>
       <c r="C441" s="20"/>
@@ -11773,7 +11795,7 @@
       <c r="S441" s="26"/>
       <c r="T441" s="23"/>
     </row>
-    <row r="442" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="20"/>
       <c r="B442" s="20"/>
       <c r="C442" s="20"/>
@@ -11795,7 +11817,7 @@
       <c r="S442" s="26"/>
       <c r="T442" s="23"/>
     </row>
-    <row r="443" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="20"/>
       <c r="B443" s="20"/>
       <c r="C443" s="20"/>
@@ -11817,7 +11839,7 @@
       <c r="S443" s="26"/>
       <c r="T443" s="23"/>
     </row>
-    <row r="444" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="20"/>
       <c r="B444" s="20"/>
       <c r="C444" s="20"/>
@@ -11839,7 +11861,7 @@
       <c r="S444" s="26"/>
       <c r="T444" s="23"/>
     </row>
-    <row r="445" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="20"/>
       <c r="B445" s="20"/>
       <c r="C445" s="20"/>
@@ -11861,7 +11883,7 @@
       <c r="S445" s="26"/>
       <c r="T445" s="23"/>
     </row>
-    <row r="446" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="20"/>
       <c r="B446" s="20"/>
       <c r="C446" s="20"/>
@@ -11883,7 +11905,7 @@
       <c r="S446" s="26"/>
       <c r="T446" s="23"/>
     </row>
-    <row r="447" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="20"/>
       <c r="B447" s="20"/>
       <c r="C447" s="20"/>
@@ -11905,7 +11927,7 @@
       <c r="S447" s="26"/>
       <c r="T447" s="23"/>
     </row>
-    <row r="448" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="20"/>
       <c r="B448" s="20"/>
       <c r="C448" s="20"/>
@@ -11927,7 +11949,7 @@
       <c r="S448" s="26"/>
       <c r="T448" s="23"/>
     </row>
-    <row r="449" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="20"/>
       <c r="B449" s="20"/>
       <c r="C449" s="20"/>
@@ -11949,7 +11971,7 @@
       <c r="S449" s="26"/>
       <c r="T449" s="23"/>
     </row>
-    <row r="450" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="20"/>
       <c r="B450" s="20"/>
       <c r="C450" s="20"/>
@@ -11971,7 +11993,7 @@
       <c r="S450" s="26"/>
       <c r="T450" s="23"/>
     </row>
-    <row r="451" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="20"/>
       <c r="B451" s="20"/>
       <c r="C451" s="20"/>
@@ -11993,7 +12015,7 @@
       <c r="S451" s="26"/>
       <c r="T451" s="23"/>
     </row>
-    <row r="452" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="20"/>
       <c r="B452" s="20"/>
       <c r="C452" s="20"/>
@@ -12015,7 +12037,7 @@
       <c r="S452" s="26"/>
       <c r="T452" s="23"/>
     </row>
-    <row r="453" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="20"/>
       <c r="B453" s="20"/>
       <c r="C453" s="20"/>
@@ -12037,7 +12059,7 @@
       <c r="S453" s="26"/>
       <c r="T453" s="23"/>
     </row>
-    <row r="454" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="20"/>
       <c r="B454" s="20"/>
       <c r="C454" s="20"/>
@@ -12059,7 +12081,7 @@
       <c r="S454" s="26"/>
       <c r="T454" s="23"/>
     </row>
-    <row r="455" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="20"/>
       <c r="B455" s="20"/>
       <c r="C455" s="20"/>
@@ -12081,7 +12103,7 @@
       <c r="S455" s="26"/>
       <c r="T455" s="23"/>
     </row>
-    <row r="456" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="20"/>
       <c r="B456" s="20"/>
       <c r="C456" s="20"/>
@@ -12103,7 +12125,7 @@
       <c r="S456" s="26"/>
       <c r="T456" s="23"/>
     </row>
-    <row r="457" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="20"/>
       <c r="B457" s="20"/>
       <c r="C457" s="20"/>
@@ -12125,7 +12147,7 @@
       <c r="S457" s="26"/>
       <c r="T457" s="23"/>
     </row>
-    <row r="458" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="20"/>
       <c r="B458" s="20"/>
       <c r="C458" s="20"/>
@@ -12147,7 +12169,7 @@
       <c r="S458" s="26"/>
       <c r="T458" s="23"/>
     </row>
-    <row r="459" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="20"/>
       <c r="B459" s="20"/>
       <c r="C459" s="20"/>
@@ -12169,7 +12191,7 @@
       <c r="S459" s="26"/>
       <c r="T459" s="23"/>
     </row>
-    <row r="460" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="20"/>
       <c r="B460" s="20"/>
       <c r="C460" s="20"/>
@@ -12191,7 +12213,7 @@
       <c r="S460" s="26"/>
       <c r="T460" s="23"/>
     </row>
-    <row r="461" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="20"/>
       <c r="B461" s="20"/>
       <c r="C461" s="20"/>
@@ -12213,7 +12235,7 @@
       <c r="S461" s="26"/>
       <c r="T461" s="23"/>
     </row>
-    <row r="462" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="20"/>
       <c r="B462" s="20"/>
       <c r="C462" s="20"/>
@@ -12235,7 +12257,7 @@
       <c r="S462" s="26"/>
       <c r="T462" s="23"/>
     </row>
-    <row r="463" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="20"/>
       <c r="B463" s="20"/>
       <c r="C463" s="20"/>
@@ -12257,7 +12279,7 @@
       <c r="S463" s="26"/>
       <c r="T463" s="23"/>
     </row>
-    <row r="464" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="20"/>
       <c r="B464" s="20"/>
       <c r="C464" s="20"/>
@@ -12279,7 +12301,7 @@
       <c r="S464" s="26"/>
       <c r="T464" s="23"/>
     </row>
-    <row r="465" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="20"/>
       <c r="B465" s="20"/>
       <c r="C465" s="20"/>
@@ -12301,7 +12323,7 @@
       <c r="S465" s="26"/>
       <c r="T465" s="23"/>
     </row>
-    <row r="466" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="20"/>
       <c r="B466" s="20"/>
       <c r="C466" s="20"/>
@@ -12323,7 +12345,7 @@
       <c r="S466" s="26"/>
       <c r="T466" s="23"/>
     </row>
-    <row r="467" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="20"/>
       <c r="B467" s="20"/>
       <c r="C467" s="20"/>
@@ -12345,7 +12367,7 @@
       <c r="S467" s="26"/>
       <c r="T467" s="23"/>
     </row>
-    <row r="468" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="20"/>
       <c r="B468" s="20"/>
       <c r="C468" s="20"/>
@@ -12367,7 +12389,7 @@
       <c r="S468" s="26"/>
       <c r="T468" s="23"/>
     </row>
-    <row r="469" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="20"/>
       <c r="B469" s="20"/>
       <c r="C469" s="20"/>
@@ -12389,7 +12411,7 @@
       <c r="S469" s="26"/>
       <c r="T469" s="23"/>
     </row>
-    <row r="470" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="20"/>
       <c r="B470" s="20"/>
       <c r="C470" s="20"/>
@@ -12411,7 +12433,7 @@
       <c r="S470" s="26"/>
       <c r="T470" s="23"/>
     </row>
-    <row r="471" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="20"/>
       <c r="B471" s="20"/>
       <c r="C471" s="20"/>
@@ -12433,7 +12455,7 @@
       <c r="S471" s="26"/>
       <c r="T471" s="23"/>
     </row>
-    <row r="472" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="20"/>
       <c r="B472" s="20"/>
       <c r="C472" s="20"/>
@@ -12455,7 +12477,7 @@
       <c r="S472" s="26"/>
       <c r="T472" s="23"/>
     </row>
-    <row r="473" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="20"/>
       <c r="B473" s="20"/>
       <c r="C473" s="20"/>
@@ -12477,7 +12499,7 @@
       <c r="S473" s="26"/>
       <c r="T473" s="23"/>
     </row>
-    <row r="474" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="20"/>
       <c r="B474" s="20"/>
       <c r="C474" s="20"/>
@@ -12499,7 +12521,7 @@
       <c r="S474" s="26"/>
       <c r="T474" s="23"/>
     </row>
-    <row r="475" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="20"/>
       <c r="B475" s="20"/>
       <c r="C475" s="20"/>
@@ -12521,7 +12543,7 @@
       <c r="S475" s="26"/>
       <c r="T475" s="23"/>
     </row>
-    <row r="476" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="20"/>
       <c r="B476" s="20"/>
       <c r="C476" s="20"/>
@@ -12543,7 +12565,7 @@
       <c r="S476" s="26"/>
       <c r="T476" s="23"/>
     </row>
-    <row r="477" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="20"/>
       <c r="B477" s="20"/>
       <c r="C477" s="20"/>
@@ -12565,7 +12587,7 @@
       <c r="S477" s="26"/>
       <c r="T477" s="23"/>
     </row>
-    <row r="478" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="20"/>
       <c r="B478" s="20"/>
       <c r="C478" s="20"/>
@@ -12587,7 +12609,7 @@
       <c r="S478" s="26"/>
       <c r="T478" s="23"/>
     </row>
-    <row r="479" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="20"/>
       <c r="B479" s="20"/>
       <c r="C479" s="20"/>
@@ -12609,7 +12631,7 @@
       <c r="S479" s="26"/>
       <c r="T479" s="23"/>
     </row>
-    <row r="480" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="20"/>
       <c r="B480" s="20"/>
       <c r="C480" s="20"/>
@@ -12631,7 +12653,7 @@
       <c r="S480" s="26"/>
       <c r="T480" s="23"/>
     </row>
-    <row r="481" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="20"/>
       <c r="B481" s="20"/>
       <c r="C481" s="20"/>
@@ -12653,7 +12675,7 @@
       <c r="S481" s="26"/>
       <c r="T481" s="23"/>
     </row>
-    <row r="482" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="20"/>
       <c r="B482" s="20"/>
       <c r="C482" s="20"/>
@@ -12675,7 +12697,7 @@
       <c r="S482" s="26"/>
       <c r="T482" s="23"/>
     </row>
-    <row r="483" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="20"/>
       <c r="B483" s="20"/>
       <c r="C483" s="20"/>
@@ -12697,7 +12719,7 @@
       <c r="S483" s="26"/>
       <c r="T483" s="23"/>
     </row>
-    <row r="484" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="20"/>
       <c r="B484" s="20"/>
       <c r="C484" s="20"/>
@@ -12719,7 +12741,7 @@
       <c r="S484" s="26"/>
       <c r="T484" s="23"/>
     </row>
-    <row r="485" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="20"/>
       <c r="B485" s="20"/>
       <c r="C485" s="20"/>
@@ -12741,7 +12763,7 @@
       <c r="S485" s="26"/>
       <c r="T485" s="23"/>
     </row>
-    <row r="486" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="20"/>
       <c r="B486" s="20"/>
       <c r="C486" s="20"/>
@@ -12763,7 +12785,7 @@
       <c r="S486" s="26"/>
       <c r="T486" s="23"/>
     </row>
-    <row r="487" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="20"/>
       <c r="B487" s="20"/>
       <c r="C487" s="20"/>
@@ -12785,7 +12807,7 @@
       <c r="S487" s="26"/>
       <c r="T487" s="23"/>
     </row>
-    <row r="488" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="20"/>
       <c r="B488" s="20"/>
       <c r="C488" s="20"/>
@@ -12807,7 +12829,7 @@
       <c r="S488" s="26"/>
       <c r="T488" s="23"/>
     </row>
-    <row r="489" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="20"/>
       <c r="B489" s="20"/>
       <c r="C489" s="20"/>
@@ -12829,7 +12851,7 @@
       <c r="S489" s="26"/>
       <c r="T489" s="23"/>
     </row>
-    <row r="490" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="20"/>
       <c r="B490" s="20"/>
       <c r="C490" s="20"/>
@@ -12851,7 +12873,7 @@
       <c r="S490" s="26"/>
       <c r="T490" s="23"/>
     </row>
-    <row r="491" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="20"/>
       <c r="B491" s="20"/>
       <c r="C491" s="20"/>
@@ -12873,7 +12895,7 @@
       <c r="S491" s="26"/>
       <c r="T491" s="23"/>
     </row>
-    <row r="492" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="20"/>
       <c r="B492" s="20"/>
       <c r="C492" s="20"/>
@@ -12895,7 +12917,7 @@
       <c r="S492" s="26"/>
       <c r="T492" s="23"/>
     </row>
-    <row r="493" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="20"/>
       <c r="B493" s="20"/>
       <c r="C493" s="20"/>
@@ -12917,7 +12939,7 @@
       <c r="S493" s="26"/>
       <c r="T493" s="23"/>
     </row>
-    <row r="494" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="20"/>
       <c r="B494" s="20"/>
       <c r="C494" s="20"/>
@@ -12939,7 +12961,7 @@
       <c r="S494" s="26"/>
       <c r="T494" s="23"/>
     </row>
-    <row r="495" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="20"/>
       <c r="B495" s="20"/>
       <c r="C495" s="20"/>
@@ -12961,7 +12983,7 @@
       <c r="S495" s="26"/>
       <c r="T495" s="23"/>
     </row>
-    <row r="496" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="20"/>
       <c r="B496" s="20"/>
       <c r="C496" s="20"/>
@@ -12983,7 +13005,7 @@
       <c r="S496" s="26"/>
       <c r="T496" s="23"/>
     </row>
-    <row r="497" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="20"/>
       <c r="B497" s="20"/>
       <c r="C497" s="20"/>
@@ -13005,7 +13027,7 @@
       <c r="S497" s="26"/>
       <c r="T497" s="23"/>
     </row>
-    <row r="498" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="20"/>
       <c r="B498" s="20"/>
       <c r="C498" s="20"/>
@@ -13027,7 +13049,7 @@
       <c r="S498" s="26"/>
       <c r="T498" s="23"/>
     </row>
-    <row r="499" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="20"/>
       <c r="B499" s="20"/>
       <c r="C499" s="20"/>
@@ -13049,7 +13071,7 @@
       <c r="S499" s="26"/>
       <c r="T499" s="23"/>
     </row>
-    <row r="500" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="20"/>
       <c r="B500" s="20"/>
       <c r="C500" s="20"/>
@@ -13071,7 +13093,7 @@
       <c r="S500" s="26"/>
       <c r="T500" s="23"/>
     </row>
-    <row r="501" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="20"/>
       <c r="B501" s="20"/>
       <c r="C501" s="20"/>
@@ -13093,7 +13115,7 @@
       <c r="S501" s="26"/>
       <c r="T501" s="23"/>
     </row>
-    <row r="502" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="20"/>
       <c r="B502" s="20"/>
       <c r="C502" s="20"/>
@@ -13115,7 +13137,7 @@
       <c r="S502" s="26"/>
       <c r="T502" s="23"/>
     </row>
-    <row r="503" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="20"/>
       <c r="B503" s="20"/>
       <c r="C503" s="20"/>
@@ -13137,7 +13159,7 @@
       <c r="S503" s="26"/>
       <c r="T503" s="23"/>
     </row>
-    <row r="504" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="20"/>
       <c r="B504" s="20"/>
       <c r="C504" s="20"/>
@@ -13159,7 +13181,7 @@
       <c r="S504" s="26"/>
       <c r="T504" s="23"/>
     </row>
-    <row r="505" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="20"/>
       <c r="B505" s="20"/>
       <c r="C505" s="20"/>
@@ -13181,7 +13203,7 @@
       <c r="S505" s="26"/>
       <c r="T505" s="23"/>
     </row>
-    <row r="506" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="20"/>
       <c r="B506" s="20"/>
       <c r="C506" s="20"/>
@@ -13203,7 +13225,7 @@
       <c r="S506" s="26"/>
       <c r="T506" s="23"/>
     </row>
-    <row r="507" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="20"/>
       <c r="B507" s="20"/>
       <c r="C507" s="20"/>
@@ -13225,7 +13247,7 @@
       <c r="S507" s="26"/>
       <c r="T507" s="23"/>
     </row>
-    <row r="508" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="20"/>
       <c r="B508" s="20"/>
       <c r="C508" s="20"/>
@@ -13247,7 +13269,7 @@
       <c r="S508" s="26"/>
       <c r="T508" s="23"/>
     </row>
-    <row r="509" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="20"/>
       <c r="B509" s="20"/>
       <c r="C509" s="20"/>
@@ -13269,7 +13291,7 @@
       <c r="S509" s="26"/>
       <c r="T509" s="23"/>
     </row>
-    <row r="510" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="20"/>
       <c r="B510" s="20"/>
       <c r="C510" s="20"/>
@@ -13291,7 +13313,7 @@
       <c r="S510" s="26"/>
       <c r="T510" s="23"/>
     </row>
-    <row r="511" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="20"/>
       <c r="B511" s="20"/>
       <c r="C511" s="20"/>
@@ -13313,7 +13335,7 @@
       <c r="S511" s="26"/>
       <c r="T511" s="23"/>
     </row>
-    <row r="512" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="20"/>
       <c r="B512" s="20"/>
       <c r="C512" s="20"/>
@@ -13335,7 +13357,7 @@
       <c r="S512" s="26"/>
       <c r="T512" s="23"/>
     </row>
-    <row r="513" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="20"/>
       <c r="B513" s="20"/>
       <c r="C513" s="20"/>
@@ -13357,7 +13379,7 @@
       <c r="S513" s="26"/>
       <c r="T513" s="23"/>
     </row>
-    <row r="514" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="20"/>
       <c r="B514" s="20"/>
       <c r="C514" s="20"/>
@@ -13379,7 +13401,7 @@
       <c r="S514" s="26"/>
       <c r="T514" s="23"/>
     </row>
-    <row r="515" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="20"/>
       <c r="B515" s="20"/>
       <c r="C515" s="20"/>
@@ -13401,7 +13423,7 @@
       <c r="S515" s="26"/>
       <c r="T515" s="23"/>
     </row>
-    <row r="516" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="20"/>
       <c r="B516" s="20"/>
       <c r="C516" s="20"/>
@@ -13423,7 +13445,7 @@
       <c r="S516" s="26"/>
       <c r="T516" s="23"/>
     </row>
-    <row r="517" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="20"/>
       <c r="B517" s="20"/>
       <c r="C517" s="20"/>
@@ -13445,7 +13467,7 @@
       <c r="S517" s="26"/>
       <c r="T517" s="23"/>
     </row>
-    <row r="518" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="20"/>
       <c r="B518" s="20"/>
       <c r="C518" s="20"/>
@@ -13467,7 +13489,7 @@
       <c r="S518" s="26"/>
       <c r="T518" s="23"/>
     </row>
-    <row r="519" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="20"/>
       <c r="B519" s="20"/>
       <c r="C519" s="20"/>
@@ -13489,7 +13511,7 @@
       <c r="S519" s="26"/>
       <c r="T519" s="23"/>
     </row>
-    <row r="520" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="20"/>
       <c r="B520" s="20"/>
       <c r="C520" s="20"/>
@@ -13511,7 +13533,7 @@
       <c r="S520" s="26"/>
       <c r="T520" s="23"/>
     </row>
-    <row r="521" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="20"/>
       <c r="B521" s="20"/>
       <c r="C521" s="20"/>
@@ -13533,7 +13555,7 @@
       <c r="S521" s="26"/>
       <c r="T521" s="23"/>
     </row>
-    <row r="522" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="20"/>
       <c r="B522" s="20"/>
       <c r="C522" s="20"/>
@@ -13555,7 +13577,7 @@
       <c r="S522" s="26"/>
       <c r="T522" s="23"/>
     </row>
-    <row r="523" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="20"/>
       <c r="B523" s="20"/>
       <c r="C523" s="20"/>
@@ -13577,7 +13599,7 @@
       <c r="S523" s="26"/>
       <c r="T523" s="23"/>
     </row>
-    <row r="524" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="20"/>
       <c r="B524" s="20"/>
       <c r="C524" s="20"/>
@@ -13599,7 +13621,7 @@
       <c r="S524" s="26"/>
       <c r="T524" s="23"/>
     </row>
-    <row r="525" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="20"/>
       <c r="B525" s="20"/>
       <c r="C525" s="20"/>
@@ -13621,7 +13643,7 @@
       <c r="S525" s="26"/>
       <c r="T525" s="23"/>
     </row>
-    <row r="526" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="20"/>
       <c r="B526" s="20"/>
       <c r="C526" s="20"/>
@@ -13643,7 +13665,7 @@
       <c r="S526" s="26"/>
       <c r="T526" s="23"/>
     </row>
-    <row r="527" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="20"/>
       <c r="B527" s="20"/>
       <c r="C527" s="20"/>
@@ -13665,7 +13687,7 @@
       <c r="S527" s="26"/>
       <c r="T527" s="23"/>
     </row>
-    <row r="528" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="20"/>
       <c r="B528" s="20"/>
       <c r="C528" s="20"/>
@@ -13687,7 +13709,7 @@
       <c r="S528" s="26"/>
       <c r="T528" s="23"/>
     </row>
-    <row r="529" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="20"/>
       <c r="B529" s="20"/>
       <c r="C529" s="20"/>
@@ -13709,7 +13731,7 @@
       <c r="S529" s="26"/>
       <c r="T529" s="23"/>
     </row>
-    <row r="530" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="20"/>
       <c r="B530" s="20"/>
       <c r="C530" s="20"/>
@@ -13731,7 +13753,7 @@
       <c r="S530" s="26"/>
       <c r="T530" s="23"/>
     </row>
-    <row r="531" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="20"/>
       <c r="B531" s="20"/>
       <c r="C531" s="20"/>
@@ -13753,7 +13775,7 @@
       <c r="S531" s="26"/>
       <c r="T531" s="23"/>
     </row>
-    <row r="532" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="20"/>
       <c r="B532" s="20"/>
       <c r="C532" s="20"/>
@@ -13775,7 +13797,7 @@
       <c r="S532" s="26"/>
       <c r="T532" s="23"/>
     </row>
-    <row r="533" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="20"/>
       <c r="B533" s="20"/>
       <c r="C533" s="20"/>
@@ -13797,7 +13819,7 @@
       <c r="S533" s="26"/>
       <c r="T533" s="23"/>
     </row>
-    <row r="534" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="20"/>
       <c r="B534" s="20"/>
       <c r="C534" s="20"/>
@@ -13819,7 +13841,7 @@
       <c r="S534" s="26"/>
       <c r="T534" s="23"/>
     </row>
-    <row r="535" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="20"/>
       <c r="B535" s="20"/>
       <c r="C535" s="20"/>
@@ -13841,7 +13863,7 @@
       <c r="S535" s="26"/>
       <c r="T535" s="23"/>
     </row>
-    <row r="536" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="20"/>
       <c r="B536" s="20"/>
       <c r="C536" s="20"/>
@@ -13863,7 +13885,7 @@
       <c r="S536" s="26"/>
       <c r="T536" s="23"/>
     </row>
-    <row r="537" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="20"/>
       <c r="B537" s="20"/>
       <c r="C537" s="20"/>
@@ -13885,7 +13907,7 @@
       <c r="S537" s="26"/>
       <c r="T537" s="23"/>
     </row>
-    <row r="538" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="20"/>
       <c r="B538" s="20"/>
       <c r="C538" s="20"/>
@@ -13907,7 +13929,7 @@
       <c r="S538" s="26"/>
       <c r="T538" s="23"/>
     </row>
-    <row r="539" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="20"/>
       <c r="B539" s="20"/>
       <c r="C539" s="20"/>
@@ -13929,7 +13951,7 @@
       <c r="S539" s="26"/>
       <c r="T539" s="23"/>
     </row>
-    <row r="540" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="20"/>
       <c r="B540" s="20"/>
       <c r="C540" s="20"/>
@@ -13951,7 +13973,7 @@
       <c r="S540" s="26"/>
       <c r="T540" s="23"/>
     </row>
-    <row r="541" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="20"/>
       <c r="B541" s="20"/>
       <c r="C541" s="20"/>
@@ -13973,7 +13995,7 @@
       <c r="S541" s="26"/>
       <c r="T541" s="23"/>
     </row>
-    <row r="542" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="20"/>
       <c r="B542" s="20"/>
       <c r="C542" s="20"/>
@@ -13995,7 +14017,7 @@
       <c r="S542" s="26"/>
       <c r="T542" s="23"/>
     </row>
-    <row r="543" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="20"/>
       <c r="B543" s="20"/>
       <c r="C543" s="20"/>
@@ -14017,7 +14039,7 @@
       <c r="S543" s="26"/>
       <c r="T543" s="23"/>
     </row>
-    <row r="544" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="20"/>
       <c r="B544" s="20"/>
       <c r="C544" s="20"/>
@@ -14039,7 +14061,7 @@
       <c r="S544" s="26"/>
       <c r="T544" s="23"/>
     </row>
-    <row r="545" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="20"/>
       <c r="B545" s="20"/>
       <c r="C545" s="20"/>
@@ -14061,7 +14083,7 @@
       <c r="S545" s="26"/>
       <c r="T545" s="23"/>
     </row>
-    <row r="546" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="20"/>
       <c r="B546" s="20"/>
       <c r="C546" s="20"/>
@@ -14083,7 +14105,7 @@
       <c r="S546" s="26"/>
       <c r="T546" s="23"/>
     </row>
-    <row r="547" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="20"/>
       <c r="B547" s="20"/>
       <c r="C547" s="20"/>
@@ -14105,7 +14127,7 @@
       <c r="S547" s="26"/>
       <c r="T547" s="23"/>
     </row>
-    <row r="548" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="20"/>
       <c r="B548" s="20"/>
       <c r="C548" s="20"/>
@@ -14127,7 +14149,7 @@
       <c r="S548" s="26"/>
       <c r="T548" s="23"/>
     </row>
-    <row r="549" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="20"/>
       <c r="B549" s="20"/>
       <c r="C549" s="20"/>
@@ -14149,7 +14171,7 @@
       <c r="S549" s="26"/>
       <c r="T549" s="23"/>
     </row>
-    <row r="550" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="20"/>
       <c r="B550" s="20"/>
       <c r="C550" s="20"/>
@@ -14171,7 +14193,7 @@
       <c r="S550" s="26"/>
       <c r="T550" s="23"/>
     </row>
-    <row r="551" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="20"/>
       <c r="B551" s="20"/>
       <c r="C551" s="20"/>
@@ -14193,7 +14215,7 @@
       <c r="S551" s="26"/>
       <c r="T551" s="23"/>
     </row>
-    <row r="552" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="20"/>
       <c r="B552" s="20"/>
       <c r="C552" s="20"/>
@@ -14215,7 +14237,7 @@
       <c r="S552" s="26"/>
       <c r="T552" s="23"/>
     </row>
-    <row r="553" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="20"/>
       <c r="B553" s="20"/>
       <c r="C553" s="20"/>
@@ -14237,7 +14259,7 @@
       <c r="S553" s="26"/>
       <c r="T553" s="23"/>
     </row>
-    <row r="554" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="20"/>
       <c r="B554" s="20"/>
       <c r="C554" s="20"/>
@@ -14259,7 +14281,7 @@
       <c r="S554" s="26"/>
       <c r="T554" s="23"/>
     </row>
-    <row r="555" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="20"/>
       <c r="B555" s="20"/>
       <c r="C555" s="20"/>
@@ -14281,7 +14303,7 @@
       <c r="S555" s="26"/>
       <c r="T555" s="23"/>
     </row>
-    <row r="556" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="20"/>
       <c r="B556" s="20"/>
       <c r="C556" s="20"/>
@@ -14303,7 +14325,7 @@
       <c r="S556" s="26"/>
       <c r="T556" s="23"/>
     </row>
-    <row r="557" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="20"/>
       <c r="B557" s="20"/>
       <c r="C557" s="20"/>
@@ -14325,7 +14347,7 @@
       <c r="S557" s="26"/>
       <c r="T557" s="23"/>
     </row>
-    <row r="558" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="20"/>
       <c r="B558" s="20"/>
       <c r="C558" s="20"/>
@@ -14347,7 +14369,7 @@
       <c r="S558" s="26"/>
       <c r="T558" s="23"/>
     </row>
-    <row r="559" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="20"/>
       <c r="B559" s="20"/>
       <c r="C559" s="20"/>
@@ -14369,7 +14391,7 @@
       <c r="S559" s="26"/>
       <c r="T559" s="23"/>
     </row>
-    <row r="560" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="20"/>
       <c r="B560" s="20"/>
       <c r="C560" s="20"/>
@@ -14391,7 +14413,7 @@
       <c r="S560" s="26"/>
       <c r="T560" s="23"/>
     </row>
-    <row r="561" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="20"/>
       <c r="B561" s="20"/>
       <c r="C561" s="20"/>
@@ -14413,7 +14435,7 @@
       <c r="S561" s="26"/>
       <c r="T561" s="23"/>
     </row>
-    <row r="562" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="20"/>
       <c r="B562" s="20"/>
       <c r="C562" s="20"/>
@@ -14435,7 +14457,7 @@
       <c r="S562" s="26"/>
       <c r="T562" s="23"/>
     </row>
-    <row r="563" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="20"/>
       <c r="B563" s="20"/>
       <c r="C563" s="20"/>
@@ -14457,7 +14479,7 @@
       <c r="S563" s="26"/>
       <c r="T563" s="23"/>
     </row>
-    <row r="564" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="20"/>
       <c r="B564" s="20"/>
       <c r="C564" s="20"/>
@@ -14479,7 +14501,7 @@
       <c r="S564" s="26"/>
       <c r="T564" s="23"/>
     </row>
-    <row r="565" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="20"/>
       <c r="B565" s="20"/>
       <c r="C565" s="20"/>
@@ -14501,7 +14523,7 @@
       <c r="S565" s="26"/>
       <c r="T565" s="23"/>
     </row>
-    <row r="566" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="20"/>
       <c r="B566" s="20"/>
       <c r="C566" s="20"/>
@@ -14523,7 +14545,7 @@
       <c r="S566" s="26"/>
       <c r="T566" s="23"/>
     </row>
-    <row r="567" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="20"/>
       <c r="B567" s="20"/>
       <c r="C567" s="20"/>
@@ -14545,7 +14567,7 @@
       <c r="S567" s="26"/>
       <c r="T567" s="23"/>
     </row>
-    <row r="568" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="20"/>
       <c r="B568" s="20"/>
       <c r="C568" s="20"/>
@@ -14567,7 +14589,7 @@
       <c r="S568" s="26"/>
       <c r="T568" s="23"/>
     </row>
-    <row r="569" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="20"/>
       <c r="B569" s="20"/>
       <c r="C569" s="20"/>
@@ -14589,7 +14611,7 @@
       <c r="S569" s="26"/>
       <c r="T569" s="23"/>
     </row>
-    <row r="570" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="20"/>
       <c r="B570" s="20"/>
       <c r="C570" s="20"/>
@@ -14611,7 +14633,7 @@
       <c r="S570" s="26"/>
       <c r="T570" s="23"/>
     </row>
-    <row r="571" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="20"/>
       <c r="B571" s="20"/>
       <c r="C571" s="20"/>
@@ -14633,7 +14655,7 @@
       <c r="S571" s="26"/>
       <c r="T571" s="23"/>
     </row>
-    <row r="572" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="20"/>
       <c r="B572" s="20"/>
       <c r="C572" s="20"/>
@@ -14655,7 +14677,7 @@
       <c r="S572" s="26"/>
       <c r="T572" s="23"/>
     </row>
-    <row r="573" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="20"/>
       <c r="B573" s="20"/>
       <c r="C573" s="20"/>
@@ -14677,7 +14699,7 @@
       <c r="S573" s="26"/>
       <c r="T573" s="23"/>
     </row>
-    <row r="574" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="20"/>
       <c r="B574" s="20"/>
       <c r="C574" s="20"/>
@@ -14699,7 +14721,7 @@
       <c r="S574" s="26"/>
       <c r="T574" s="23"/>
     </row>
-    <row r="575" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="20"/>
       <c r="B575" s="20"/>
       <c r="C575" s="20"/>
@@ -14721,7 +14743,7 @@
       <c r="S575" s="26"/>
       <c r="T575" s="23"/>
     </row>
-    <row r="576" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="20"/>
       <c r="B576" s="20"/>
       <c r="C576" s="20"/>
@@ -14743,7 +14765,7 @@
       <c r="S576" s="26"/>
       <c r="T576" s="23"/>
     </row>
-    <row r="577" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="20"/>
       <c r="B577" s="20"/>
       <c r="C577" s="20"/>
@@ -14765,7 +14787,7 @@
       <c r="S577" s="26"/>
       <c r="T577" s="23"/>
     </row>
-    <row r="578" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="20"/>
       <c r="B578" s="20"/>
       <c r="C578" s="20"/>
@@ -14787,7 +14809,7 @@
       <c r="S578" s="26"/>
       <c r="T578" s="23"/>
     </row>
-    <row r="579" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="20"/>
       <c r="B579" s="20"/>
       <c r="C579" s="20"/>
@@ -14809,7 +14831,7 @@
       <c r="S579" s="26"/>
       <c r="T579" s="23"/>
     </row>
-    <row r="580" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="20"/>
       <c r="B580" s="20"/>
       <c r="C580" s="20"/>
@@ -14831,7 +14853,7 @@
       <c r="S580" s="26"/>
       <c r="T580" s="23"/>
     </row>
-    <row r="581" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="20"/>
       <c r="B581" s="20"/>
       <c r="C581" s="20"/>
@@ -14853,7 +14875,7 @@
       <c r="S581" s="26"/>
       <c r="T581" s="23"/>
     </row>
-    <row r="582" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="20"/>
       <c r="B582" s="20"/>
       <c r="C582" s="20"/>
@@ -14875,7 +14897,7 @@
       <c r="S582" s="26"/>
       <c r="T582" s="23"/>
     </row>
-    <row r="583" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="20"/>
       <c r="B583" s="20"/>
       <c r="C583" s="20"/>
@@ -14897,7 +14919,7 @@
       <c r="S583" s="26"/>
       <c r="T583" s="23"/>
     </row>
-    <row r="584" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="20"/>
       <c r="B584" s="20"/>
       <c r="C584" s="20"/>
@@ -14919,7 +14941,7 @@
       <c r="S584" s="26"/>
       <c r="T584" s="23"/>
     </row>
-    <row r="585" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="20"/>
       <c r="B585" s="20"/>
       <c r="C585" s="20"/>
@@ -14941,7 +14963,7 @@
       <c r="S585" s="26"/>
       <c r="T585" s="23"/>
     </row>
-    <row r="586" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="20"/>
       <c r="B586" s="20"/>
       <c r="C586" s="20"/>
@@ -14963,7 +14985,7 @@
       <c r="S586" s="26"/>
       <c r="T586" s="23"/>
     </row>
-    <row r="587" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="20"/>
       <c r="B587" s="20"/>
       <c r="C587" s="20"/>
@@ -14985,7 +15007,7 @@
       <c r="S587" s="26"/>
       <c r="T587" s="23"/>
     </row>
-    <row r="588" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="20"/>
       <c r="B588" s="20"/>
       <c r="C588" s="20"/>
@@ -15007,7 +15029,7 @@
       <c r="S588" s="26"/>
       <c r="T588" s="23"/>
     </row>
-    <row r="589" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="20"/>
       <c r="B589" s="20"/>
       <c r="C589" s="20"/>
@@ -15029,7 +15051,7 @@
       <c r="S589" s="26"/>
       <c r="T589" s="23"/>
     </row>
-    <row r="590" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="20"/>
       <c r="B590" s="20"/>
       <c r="C590" s="20"/>
@@ -15051,7 +15073,7 @@
       <c r="S590" s="26"/>
       <c r="T590" s="23"/>
     </row>
-    <row r="591" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="20"/>
       <c r="B591" s="20"/>
       <c r="C591" s="20"/>
@@ -15073,7 +15095,7 @@
       <c r="S591" s="26"/>
       <c r="T591" s="23"/>
     </row>
-    <row r="592" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="20"/>
       <c r="B592" s="20"/>
       <c r="C592" s="20"/>
@@ -15095,7 +15117,7 @@
       <c r="S592" s="26"/>
       <c r="T592" s="23"/>
     </row>
-    <row r="593" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="20"/>
       <c r="B593" s="20"/>
       <c r="C593" s="20"/>
@@ -15117,7 +15139,7 @@
       <c r="S593" s="26"/>
       <c r="T593" s="23"/>
     </row>
-    <row r="594" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="20"/>
       <c r="B594" s="20"/>
       <c r="C594" s="20"/>
@@ -15139,7 +15161,7 @@
       <c r="S594" s="26"/>
       <c r="T594" s="23"/>
     </row>
-    <row r="595" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="20"/>
       <c r="B595" s="20"/>
       <c r="C595" s="20"/>
@@ -15161,7 +15183,7 @@
       <c r="S595" s="26"/>
       <c r="T595" s="23"/>
     </row>
-    <row r="596" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="20"/>
       <c r="B596" s="20"/>
       <c r="C596" s="20"/>
@@ -15183,7 +15205,7 @@
       <c r="S596" s="26"/>
       <c r="T596" s="23"/>
     </row>
-    <row r="597" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="20"/>
       <c r="B597" s="20"/>
       <c r="C597" s="20"/>
@@ -15205,7 +15227,7 @@
       <c r="S597" s="26"/>
       <c r="T597" s="23"/>
     </row>
-    <row r="598" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="20"/>
       <c r="B598" s="20"/>
       <c r="C598" s="20"/>
@@ -15227,7 +15249,7 @@
       <c r="S598" s="26"/>
       <c r="T598" s="23"/>
     </row>
-    <row r="599" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="20"/>
       <c r="B599" s="20"/>
       <c r="C599" s="20"/>
@@ -15249,7 +15271,7 @@
       <c r="S599" s="26"/>
       <c r="T599" s="23"/>
     </row>
-    <row r="600" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="20"/>
       <c r="B600" s="20"/>
       <c r="C600" s="20"/>
@@ -15271,7 +15293,7 @@
       <c r="S600" s="26"/>
       <c r="T600" s="23"/>
     </row>
-    <row r="601" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="20"/>
       <c r="B601" s="20"/>
       <c r="C601" s="20"/>
@@ -15293,7 +15315,7 @@
       <c r="S601" s="26"/>
       <c r="T601" s="23"/>
     </row>
-    <row r="602" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="20"/>
       <c r="B602" s="20"/>
       <c r="C602" s="20"/>
@@ -15315,7 +15337,7 @@
       <c r="S602" s="26"/>
       <c r="T602" s="23"/>
     </row>
-    <row r="603" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="20"/>
       <c r="B603" s="20"/>
       <c r="C603" s="20"/>
@@ -15337,7 +15359,7 @@
       <c r="S603" s="26"/>
       <c r="T603" s="23"/>
     </row>
-    <row r="604" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="20"/>
       <c r="B604" s="20"/>
       <c r="C604" s="20"/>
@@ -15359,7 +15381,7 @@
       <c r="S604" s="26"/>
       <c r="T604" s="23"/>
     </row>
-    <row r="605" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="20"/>
       <c r="B605" s="20"/>
       <c r="C605" s="20"/>
@@ -15381,7 +15403,7 @@
       <c r="S605" s="26"/>
       <c r="T605" s="23"/>
     </row>
-    <row r="606" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="20"/>
       <c r="B606" s="20"/>
       <c r="C606" s="20"/>
@@ -15403,7 +15425,7 @@
       <c r="S606" s="26"/>
       <c r="T606" s="23"/>
     </row>
-    <row r="607" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="20"/>
       <c r="B607" s="20"/>
       <c r="C607" s="20"/>
@@ -15425,7 +15447,7 @@
       <c r="S607" s="26"/>
       <c r="T607" s="23"/>
     </row>
-    <row r="608" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="20"/>
       <c r="B608" s="20"/>
       <c r="C608" s="20"/>
@@ -15447,7 +15469,7 @@
       <c r="S608" s="26"/>
       <c r="T608" s="23"/>
     </row>
-    <row r="609" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="20"/>
       <c r="B609" s="20"/>
       <c r="C609" s="20"/>
@@ -15469,7 +15491,7 @@
       <c r="S609" s="26"/>
       <c r="T609" s="23"/>
     </row>
-    <row r="610" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="20"/>
       <c r="B610" s="20"/>
       <c r="C610" s="20"/>
@@ -15491,7 +15513,7 @@
       <c r="S610" s="26"/>
       <c r="T610" s="23"/>
     </row>
-    <row r="611" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="20"/>
       <c r="B611" s="20"/>
       <c r="C611" s="20"/>
@@ -15513,7 +15535,7 @@
       <c r="S611" s="26"/>
       <c r="T611" s="23"/>
     </row>
-    <row r="612" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="20"/>
       <c r="B612" s="20"/>
       <c r="C612" s="20"/>
@@ -15535,7 +15557,7 @@
       <c r="S612" s="26"/>
       <c r="T612" s="23"/>
     </row>
-    <row r="613" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="20"/>
       <c r="B613" s="20"/>
       <c r="C613" s="20"/>
@@ -15557,7 +15579,7 @@
       <c r="S613" s="26"/>
       <c r="T613" s="23"/>
     </row>
-    <row r="614" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="20"/>
       <c r="B614" s="20"/>
       <c r="C614" s="20"/>
@@ -15579,7 +15601,7 @@
       <c r="S614" s="26"/>
       <c r="T614" s="23"/>
     </row>
-    <row r="615" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="20"/>
       <c r="B615" s="20"/>
       <c r="C615" s="20"/>
@@ -15601,7 +15623,7 @@
       <c r="S615" s="26"/>
       <c r="T615" s="23"/>
     </row>
-    <row r="616" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="20"/>
       <c r="B616" s="20"/>
       <c r="C616" s="20"/>
@@ -15623,7 +15645,7 @@
       <c r="S616" s="26"/>
       <c r="T616" s="23"/>
     </row>
-    <row r="617" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="20"/>
       <c r="B617" s="20"/>
       <c r="C617" s="20"/>
@@ -15645,7 +15667,7 @@
       <c r="S617" s="26"/>
       <c r="T617" s="23"/>
     </row>
-    <row r="618" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="20"/>
       <c r="B618" s="20"/>
       <c r="C618" s="20"/>
@@ -15667,7 +15689,7 @@
       <c r="S618" s="26"/>
       <c r="T618" s="23"/>
     </row>
-    <row r="619" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="20"/>
       <c r="B619" s="20"/>
       <c r="C619" s="20"/>
@@ -15689,7 +15711,7 @@
       <c r="S619" s="26"/>
       <c r="T619" s="23"/>
     </row>
-    <row r="620" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="20"/>
       <c r="B620" s="20"/>
       <c r="C620" s="20"/>
@@ -15711,7 +15733,7 @@
       <c r="S620" s="26"/>
       <c r="T620" s="23"/>
     </row>
-    <row r="621" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="20"/>
       <c r="B621" s="20"/>
       <c r="C621" s="20"/>
@@ -15733,7 +15755,7 @@
       <c r="S621" s="26"/>
       <c r="T621" s="23"/>
     </row>
-    <row r="622" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="20"/>
       <c r="B622" s="20"/>
       <c r="C622" s="20"/>
@@ -15755,7 +15777,7 @@
       <c r="S622" s="26"/>
       <c r="T622" s="23"/>
     </row>
-    <row r="623" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="20"/>
       <c r="B623" s="20"/>
       <c r="C623" s="20"/>
@@ -15777,7 +15799,7 @@
       <c r="S623" s="26"/>
       <c r="T623" s="23"/>
     </row>
-    <row r="624" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="20"/>
       <c r="B624" s="20"/>
       <c r="C624" s="20"/>
@@ -15799,7 +15821,7 @@
       <c r="S624" s="26"/>
       <c r="T624" s="23"/>
     </row>
-    <row r="625" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="20"/>
       <c r="B625" s="20"/>
       <c r="C625" s="20"/>
@@ -15821,7 +15843,7 @@
       <c r="S625" s="26"/>
       <c r="T625" s="23"/>
     </row>
-    <row r="626" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="20"/>
       <c r="B626" s="20"/>
       <c r="C626" s="20"/>
@@ -15843,7 +15865,7 @@
       <c r="S626" s="26"/>
       <c r="T626" s="23"/>
     </row>
-    <row r="627" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="20"/>
       <c r="B627" s="20"/>
       <c r="C627" s="20"/>
@@ -15865,7 +15887,7 @@
       <c r="S627" s="26"/>
       <c r="T627" s="23"/>
     </row>
-    <row r="628" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="20"/>
       <c r="B628" s="20"/>
       <c r="C628" s="20"/>
@@ -15887,7 +15909,7 @@
       <c r="S628" s="26"/>
       <c r="T628" s="23"/>
     </row>
-    <row r="629" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="20"/>
       <c r="B629" s="20"/>
       <c r="C629" s="20"/>
@@ -15909,7 +15931,7 @@
       <c r="S629" s="26"/>
       <c r="T629" s="23"/>
     </row>
-    <row r="630" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="20"/>
       <c r="B630" s="20"/>
       <c r="C630" s="20"/>
@@ -15931,7 +15953,7 @@
       <c r="S630" s="26"/>
       <c r="T630" s="23"/>
     </row>
-    <row r="631" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="20"/>
       <c r="B631" s="20"/>
       <c r="C631" s="20"/>
@@ -15953,7 +15975,7 @@
       <c r="S631" s="26"/>
       <c r="T631" s="23"/>
     </row>
-    <row r="632" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="20"/>
       <c r="B632" s="20"/>
       <c r="C632" s="20"/>
@@ -15975,7 +15997,7 @@
       <c r="S632" s="26"/>
       <c r="T632" s="23"/>
     </row>
-    <row r="633" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="20"/>
       <c r="B633" s="20"/>
       <c r="C633" s="20"/>
@@ -15997,7 +16019,7 @@
       <c r="S633" s="26"/>
       <c r="T633" s="23"/>
     </row>
-    <row r="634" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="20"/>
       <c r="B634" s="20"/>
       <c r="C634" s="20"/>
@@ -16019,7 +16041,7 @@
       <c r="S634" s="26"/>
       <c r="T634" s="23"/>
     </row>
-    <row r="635" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="20"/>
       <c r="B635" s="20"/>
       <c r="C635" s="20"/>
@@ -16041,7 +16063,7 @@
       <c r="S635" s="26"/>
       <c r="T635" s="23"/>
     </row>
-    <row r="636" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="20"/>
       <c r="B636" s="20"/>
       <c r="C636" s="20"/>
@@ -16063,7 +16085,7 @@
       <c r="S636" s="26"/>
       <c r="T636" s="23"/>
     </row>
-    <row r="637" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="20"/>
       <c r="B637" s="20"/>
       <c r="C637" s="20"/>
@@ -16085,7 +16107,7 @@
       <c r="S637" s="26"/>
       <c r="T637" s="23"/>
     </row>
-    <row r="638" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="20"/>
       <c r="B638" s="20"/>
       <c r="C638" s="20"/>
@@ -16107,7 +16129,7 @@
       <c r="S638" s="26"/>
       <c r="T638" s="23"/>
     </row>
-    <row r="639" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="20"/>
       <c r="B639" s="20"/>
       <c r="C639" s="20"/>
@@ -16129,7 +16151,7 @@
       <c r="S639" s="26"/>
       <c r="T639" s="23"/>
     </row>
-    <row r="640" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="20"/>
       <c r="B640" s="20"/>
       <c r="C640" s="20"/>
@@ -16151,7 +16173,7 @@
       <c r="S640" s="26"/>
       <c r="T640" s="23"/>
     </row>
-    <row r="641" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="20"/>
       <c r="B641" s="20"/>
       <c r="C641" s="20"/>
@@ -16173,7 +16195,7 @@
       <c r="S641" s="26"/>
       <c r="T641" s="23"/>
     </row>
-    <row r="642" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="20"/>
       <c r="B642" s="20"/>
       <c r="C642" s="20"/>
@@ -16195,7 +16217,7 @@
       <c r="S642" s="26"/>
       <c r="T642" s="23"/>
     </row>
-    <row r="643" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="20"/>
       <c r="B643" s="20"/>
       <c r="C643" s="20"/>
@@ -16217,7 +16239,7 @@
       <c r="S643" s="26"/>
       <c r="T643" s="23"/>
     </row>
-    <row r="644" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="20"/>
       <c r="B644" s="20"/>
       <c r="C644" s="20"/>
@@ -16239,7 +16261,7 @@
       <c r="S644" s="26"/>
       <c r="T644" s="23"/>
     </row>
-    <row r="645" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="20"/>
       <c r="B645" s="20"/>
       <c r="C645" s="20"/>
@@ -16261,7 +16283,7 @@
       <c r="S645" s="26"/>
       <c r="T645" s="23"/>
     </row>
-    <row r="646" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="20"/>
       <c r="B646" s="20"/>
       <c r="C646" s="20"/>
@@ -16283,7 +16305,7 @@
       <c r="S646" s="26"/>
       <c r="T646" s="23"/>
     </row>
-    <row r="647" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="20"/>
       <c r="B647" s="20"/>
       <c r="C647" s="20"/>
@@ -16305,7 +16327,7 @@
       <c r="S647" s="26"/>
       <c r="T647" s="23"/>
     </row>
-    <row r="648" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="20"/>
       <c r="B648" s="20"/>
       <c r="C648" s="20"/>
@@ -16327,7 +16349,7 @@
       <c r="S648" s="26"/>
       <c r="T648" s="23"/>
     </row>
-    <row r="649" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="20"/>
       <c r="B649" s="20"/>
       <c r="C649" s="20"/>
@@ -16349,7 +16371,7 @@
       <c r="S649" s="26"/>
       <c r="T649" s="23"/>
     </row>
-    <row r="650" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="20"/>
       <c r="B650" s="20"/>
       <c r="C650" s="20"/>
@@ -16371,7 +16393,7 @@
       <c r="S650" s="26"/>
       <c r="T650" s="23"/>
     </row>
-    <row r="651" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="20"/>
       <c r="B651" s="20"/>
       <c r="C651" s="20"/>
@@ -16393,7 +16415,7 @@
       <c r="S651" s="26"/>
       <c r="T651" s="23"/>
     </row>
-    <row r="652" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="20"/>
       <c r="B652" s="20"/>
       <c r="C652" s="20"/>
@@ -16415,7 +16437,7 @@
       <c r="S652" s="26"/>
       <c r="T652" s="23"/>
     </row>
-    <row r="653" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="20"/>
       <c r="B653" s="20"/>
       <c r="C653" s="20"/>
@@ -16437,7 +16459,7 @@
       <c r="S653" s="26"/>
       <c r="T653" s="23"/>
     </row>
-    <row r="654" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="20"/>
       <c r="B654" s="20"/>
       <c r="C654" s="20"/>
@@ -16459,7 +16481,7 @@
       <c r="S654" s="26"/>
       <c r="T654" s="23"/>
     </row>
-    <row r="655" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="20"/>
       <c r="B655" s="20"/>
       <c r="C655" s="20"/>
@@ -16481,7 +16503,7 @@
       <c r="S655" s="26"/>
       <c r="T655" s="23"/>
     </row>
-    <row r="656" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="20"/>
       <c r="B656" s="20"/>
       <c r="C656" s="20"/>
@@ -16503,7 +16525,7 @@
       <c r="S656" s="26"/>
       <c r="T656" s="23"/>
     </row>
-    <row r="657" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="20"/>
       <c r="B657" s="20"/>
       <c r="C657" s="20"/>
@@ -16525,7 +16547,7 @@
       <c r="S657" s="26"/>
       <c r="T657" s="23"/>
     </row>
-    <row r="658" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="20"/>
       <c r="B658" s="20"/>
       <c r="C658" s="20"/>
@@ -16547,7 +16569,7 @@
       <c r="S658" s="26"/>
       <c r="T658" s="23"/>
     </row>
-    <row r="659" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="20"/>
       <c r="B659" s="20"/>
       <c r="C659" s="20"/>
@@ -16569,7 +16591,7 @@
       <c r="S659" s="26"/>
       <c r="T659" s="23"/>
     </row>
-    <row r="660" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="20"/>
       <c r="B660" s="20"/>
       <c r="C660" s="20"/>
@@ -16591,7 +16613,7 @@
       <c r="S660" s="26"/>
       <c r="T660" s="23"/>
     </row>
-    <row r="661" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="20"/>
       <c r="B661" s="20"/>
       <c r="C661" s="20"/>
@@ -16613,7 +16635,7 @@
       <c r="S661" s="26"/>
       <c r="T661" s="23"/>
     </row>
-    <row r="662" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="20"/>
       <c r="B662" s="20"/>
       <c r="C662" s="20"/>
@@ -16635,7 +16657,7 @@
       <c r="S662" s="26"/>
       <c r="T662" s="23"/>
     </row>
-    <row r="663" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="20"/>
       <c r="B663" s="20"/>
       <c r="C663" s="20"/>
@@ -16657,7 +16679,7 @@
       <c r="S663" s="26"/>
       <c r="T663" s="23"/>
     </row>
-    <row r="664" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="20"/>
       <c r="B664" s="20"/>
       <c r="C664" s="20"/>
@@ -16679,7 +16701,7 @@
       <c r="S664" s="26"/>
       <c r="T664" s="23"/>
     </row>
-    <row r="665" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="20"/>
       <c r="B665" s="20"/>
       <c r="C665" s="20"/>
@@ -16701,7 +16723,7 @@
       <c r="S665" s="26"/>
       <c r="T665" s="23"/>
     </row>
-    <row r="666" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="20"/>
       <c r="B666" s="20"/>
       <c r="C666" s="20"/>
@@ -16723,7 +16745,7 @@
       <c r="S666" s="26"/>
       <c r="T666" s="23"/>
     </row>
-    <row r="667" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="20"/>
       <c r="B667" s="20"/>
       <c r="C667" s="20"/>
@@ -16745,7 +16767,7 @@
       <c r="S667" s="26"/>
       <c r="T667" s="23"/>
     </row>
-    <row r="668" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="20"/>
       <c r="B668" s="20"/>
       <c r="C668" s="20"/>
@@ -16767,7 +16789,7 @@
       <c r="S668" s="26"/>
       <c r="T668" s="23"/>
     </row>
-    <row r="669" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="20"/>
       <c r="B669" s="20"/>
       <c r="C669" s="20"/>
@@ -16789,7 +16811,7 @@
       <c r="S669" s="26"/>
       <c r="T669" s="23"/>
     </row>
-    <row r="670" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="20"/>
       <c r="B670" s="20"/>
       <c r="C670" s="20"/>
@@ -16811,7 +16833,7 @@
       <c r="S670" s="26"/>
       <c r="T670" s="23"/>
     </row>
-    <row r="671" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="20"/>
       <c r="B671" s="20"/>
       <c r="C671" s="20"/>
@@ -16833,7 +16855,7 @@
       <c r="S671" s="26"/>
       <c r="T671" s="23"/>
     </row>
-    <row r="672" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="20"/>
       <c r="B672" s="20"/>
       <c r="C672" s="20"/>
@@ -16855,7 +16877,7 @@
       <c r="S672" s="26"/>
       <c r="T672" s="23"/>
     </row>
-    <row r="673" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="20"/>
       <c r="B673" s="20"/>
       <c r="C673" s="20"/>
@@ -16877,7 +16899,7 @@
       <c r="S673" s="26"/>
       <c r="T673" s="23"/>
     </row>
-    <row r="674" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="20"/>
       <c r="B674" s="20"/>
       <c r="C674" s="20"/>
@@ -16899,7 +16921,7 @@
       <c r="S674" s="26"/>
       <c r="T674" s="23"/>
     </row>
-    <row r="675" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="20"/>
       <c r="B675" s="20"/>
       <c r="C675" s="20"/>
@@ -16921,7 +16943,7 @@
       <c r="S675" s="26"/>
       <c r="T675" s="23"/>
     </row>
-    <row r="676" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="20"/>
       <c r="B676" s="20"/>
       <c r="C676" s="20"/>
@@ -16943,7 +16965,7 @@
       <c r="S676" s="26"/>
       <c r="T676" s="23"/>
     </row>
-    <row r="677" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="20"/>
       <c r="B677" s="20"/>
       <c r="C677" s="20"/>
@@ -16965,7 +16987,7 @@
       <c r="S677" s="26"/>
       <c r="T677" s="23"/>
     </row>
-    <row r="678" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="20"/>
       <c r="B678" s="20"/>
       <c r="C678" s="20"/>
@@ -16987,7 +17009,7 @@
       <c r="S678" s="26"/>
       <c r="T678" s="23"/>
     </row>
-    <row r="679" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="20"/>
       <c r="B679" s="20"/>
       <c r="C679" s="20"/>
@@ -17009,7 +17031,7 @@
       <c r="S679" s="26"/>
       <c r="T679" s="23"/>
     </row>
-    <row r="680" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="20"/>
       <c r="B680" s="20"/>
       <c r="C680" s="20"/>
@@ -17031,7 +17053,7 @@
       <c r="S680" s="26"/>
       <c r="T680" s="23"/>
     </row>
-    <row r="681" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="20"/>
       <c r="B681" s="20"/>
       <c r="C681" s="20"/>
@@ -17053,7 +17075,7 @@
       <c r="S681" s="26"/>
       <c r="T681" s="23"/>
     </row>
-    <row r="682" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="20"/>
       <c r="B682" s="20"/>
       <c r="C682" s="20"/>
@@ -17075,7 +17097,7 @@
       <c r="S682" s="26"/>
       <c r="T682" s="23"/>
     </row>
-    <row r="683" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="20"/>
       <c r="B683" s="20"/>
       <c r="C683" s="20"/>
@@ -17097,7 +17119,7 @@
       <c r="S683" s="26"/>
       <c r="T683" s="23"/>
     </row>
-    <row r="684" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="20"/>
       <c r="B684" s="20"/>
       <c r="C684" s="20"/>
@@ -17119,7 +17141,7 @@
       <c r="S684" s="26"/>
       <c r="T684" s="23"/>
     </row>
-    <row r="685" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="20"/>
       <c r="B685" s="20"/>
       <c r="C685" s="20"/>
@@ -17141,7 +17163,7 @@
       <c r="S685" s="26"/>
       <c r="T685" s="23"/>
     </row>
-    <row r="686" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="20"/>
       <c r="B686" s="20"/>
       <c r="C686" s="20"/>
@@ -17163,7 +17185,7 @@
       <c r="S686" s="26"/>
       <c r="T686" s="23"/>
     </row>
-    <row r="687" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="20"/>
       <c r="B687" s="20"/>
       <c r="C687" s="20"/>
@@ -17185,7 +17207,7 @@
       <c r="S687" s="26"/>
       <c r="T687" s="23"/>
     </row>
-    <row r="688" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="20"/>
       <c r="B688" s="20"/>
       <c r="C688" s="20"/>
@@ -17207,7 +17229,7 @@
       <c r="S688" s="26"/>
       <c r="T688" s="23"/>
     </row>
-    <row r="689" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="20"/>
       <c r="B689" s="20"/>
       <c r="C689" s="20"/>
@@ -17229,7 +17251,7 @@
       <c r="S689" s="26"/>
       <c r="T689" s="23"/>
     </row>
-    <row r="690" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="20"/>
       <c r="B690" s="20"/>
       <c r="C690" s="20"/>
@@ -17251,7 +17273,7 @@
       <c r="S690" s="26"/>
       <c r="T690" s="23"/>
     </row>
-    <row r="691" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="20"/>
       <c r="B691" s="20"/>
       <c r="C691" s="20"/>
@@ -17273,7 +17295,7 @@
       <c r="S691" s="26"/>
       <c r="T691" s="23"/>
     </row>
-    <row r="692" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="20"/>
       <c r="B692" s="20"/>
       <c r="C692" s="20"/>
@@ -17295,7 +17317,7 @@
       <c r="S692" s="26"/>
       <c r="T692" s="23"/>
     </row>
-    <row r="693" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="20"/>
       <c r="B693" s="20"/>
       <c r="C693" s="20"/>
@@ -17317,7 +17339,7 @@
       <c r="S693" s="26"/>
       <c r="T693" s="23"/>
     </row>
-    <row r="694" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="20"/>
       <c r="B694" s="20"/>
       <c r="C694" s="20"/>
@@ -17339,7 +17361,7 @@
       <c r="S694" s="26"/>
       <c r="T694" s="23"/>
     </row>
-    <row r="695" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="20"/>
       <c r="B695" s="20"/>
       <c r="C695" s="20"/>
@@ -17361,7 +17383,7 @@
       <c r="S695" s="26"/>
       <c r="T695" s="23"/>
     </row>
-    <row r="696" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="20"/>
       <c r="B696" s="20"/>
       <c r="C696" s="20"/>
@@ -17383,7 +17405,7 @@
       <c r="S696" s="26"/>
       <c r="T696" s="23"/>
     </row>
-    <row r="697" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="20"/>
       <c r="B697" s="20"/>
       <c r="C697" s="20"/>
@@ -17405,7 +17427,7 @@
       <c r="S697" s="26"/>
       <c r="T697" s="23"/>
     </row>
-    <row r="698" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="20"/>
       <c r="B698" s="20"/>
       <c r="C698" s="20"/>
@@ -17427,7 +17449,7 @@
       <c r="S698" s="26"/>
       <c r="T698" s="23"/>
     </row>
-    <row r="699" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="20"/>
       <c r="B699" s="20"/>
       <c r="C699" s="20"/>
@@ -17449,7 +17471,7 @@
       <c r="S699" s="26"/>
       <c r="T699" s="23"/>
     </row>
-    <row r="700" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="20"/>
       <c r="B700" s="20"/>
       <c r="C700" s="20"/>
@@ -17471,7 +17493,7 @@
       <c r="S700" s="26"/>
       <c r="T700" s="23"/>
     </row>
-    <row r="701" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="20"/>
       <c r="B701" s="20"/>
       <c r="C701" s="20"/>
@@ -17493,7 +17515,7 @@
       <c r="S701" s="26"/>
       <c r="T701" s="23"/>
     </row>
-    <row r="702" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="20"/>
       <c r="B702" s="20"/>
       <c r="C702" s="20"/>
@@ -17515,7 +17537,7 @@
       <c r="S702" s="26"/>
       <c r="T702" s="23"/>
     </row>
-    <row r="703" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="20"/>
       <c r="B703" s="20"/>
       <c r="C703" s="20"/>
@@ -17537,7 +17559,7 @@
       <c r="S703" s="26"/>
       <c r="T703" s="23"/>
     </row>
-    <row r="704" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="20"/>
       <c r="B704" s="20"/>
       <c r="C704" s="20"/>
@@ -17559,7 +17581,7 @@
       <c r="S704" s="26"/>
       <c r="T704" s="23"/>
     </row>
-    <row r="705" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="20"/>
       <c r="B705" s="20"/>
       <c r="C705" s="20"/>
@@ -17581,7 +17603,7 @@
       <c r="S705" s="26"/>
       <c r="T705" s="23"/>
     </row>
-    <row r="706" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="20"/>
       <c r="B706" s="20"/>
       <c r="C706" s="20"/>
@@ -17603,7 +17625,7 @@
       <c r="S706" s="26"/>
       <c r="T706" s="23"/>
     </row>
-    <row r="707" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="20"/>
       <c r="B707" s="20"/>
       <c r="C707" s="20"/>
@@ -17660,16 +17682,16 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="58.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" customWidth="1"/>
+    <col min="4" max="4" width="58.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -17684,7 +17706,7 @@
       </c>
       <c r="E1" s="5"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>33</v>
       </c>
@@ -17699,7 +17721,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>37</v>
       </c>
@@ -17714,7 +17736,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>26</v>
       </c>
@@ -17729,7 +17751,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>42</v>
       </c>
@@ -17744,7 +17766,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>45</v>
       </c>
@@ -17759,7 +17781,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>48</v>
       </c>
@@ -17774,21 +17796,21 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
